--- a/nodes_source_analyses/households/households_water_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_heatpump_air_water_electricity.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12500" windowWidth="24880" windowHeight="28340" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="24880" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -303,9 +303,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -538,6 +535,10 @@
   </si>
   <si>
     <t>liter per MWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
   </si>
 </sst>
 </file>
@@ -551,7 +552,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -662,11 +663,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1287,22 +1283,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1322,7 +1318,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1337,7 +1333,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1353,7 +1349,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1380,15 +1376,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1424,17 +1420,17 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1445,33 +1441,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1486,6 +1455,33 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="252">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1751,83 +1747,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2469,7 +2389,7 @@
     <col min="1" max="1" width="3.42578125" style="21" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="13" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="13"/>
+    <col min="4" max="16384" width="10.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2495,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2504,7 +2424,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,14 +2557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2659,7 +2579,7 @@
     <col min="8" max="8" width="5.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="48" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="9.28515625" style="26"/>
+    <col min="11" max="16384" width="10.7109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -2669,28 +2589,28 @@
       <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="149" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
+      <c r="B2" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
+    <row r="4" spans="2:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
@@ -2743,7 +2663,7 @@
     <row r="9" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15"/>
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="9"/>
@@ -2755,7 +2675,7 @@
     <row r="10" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>4</v>
@@ -2776,7 +2696,7 @@
     <row r="11" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>4</v>
@@ -2797,7 +2717,7 @@
     <row r="12" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>4</v>
@@ -2818,7 +2738,7 @@
     <row r="13" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>4</v>
@@ -2839,7 +2759,7 @@
     <row r="14" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>4</v>
@@ -2860,7 +2780,7 @@
     <row r="15" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>4</v>
@@ -2881,10 +2801,10 @@
     <row r="16" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="148">
         <f>'Research data'!E12</f>
@@ -2902,10 +2822,10 @@
     <row r="17" spans="2:11" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="E17" s="144">
         <f>'Research data'!E13</f>
@@ -2967,7 +2887,7 @@
     <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="29"/>
       <c r="C20" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>4</v>
@@ -3227,7 +3147,7 @@
     <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="29"/>
       <c r="C32" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="75"/>
       <c r="E32" s="76"/>
@@ -3245,7 +3165,7 @@
       <c r="D33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="165">
+      <c r="E33" s="156">
         <f>'Research data'!E29</f>
         <v>9246.4312546957171</v>
       </c>
@@ -3445,10 +3365,10 @@
     <row r="42" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
       <c r="C42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="E42" s="130">
         <f>'Research data'!E38</f>
@@ -3580,7 +3500,7 @@
     <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="29"/>
       <c r="C49" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>4</v>
@@ -3601,7 +3521,7 @@
     <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="29"/>
       <c r="C50" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>4</v>
@@ -3622,7 +3542,7 @@
     <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="29"/>
       <c r="C51" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>4</v>
@@ -3643,7 +3563,7 @@
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="29"/>
       <c r="C52" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>4</v>
@@ -3664,7 +3584,7 @@
     <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="29"/>
       <c r="C53" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>4</v>
@@ -3699,38 +3619,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -3759,7 +3647,7 @@
     <col min="12" max="12" width="16.5703125" style="50" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="60" style="50" customWidth="1"/>
-    <col min="15" max="16384" width="9.28515625" style="50"/>
+    <col min="15" max="16384" width="10.7109375" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3781,7 +3669,7 @@
     <row r="3" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="79" t="s">
         <v>12</v>
@@ -3812,10 +3700,10 @@
         <v>Zonenboiler-zelfbouw</v>
       </c>
       <c r="M3" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N3" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -4061,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4268,7 +4156,7 @@
         <f>Notes!E78</f>
         <v>0.01</v>
       </c>
-      <c r="K21" s="161"/>
+      <c r="K21" s="152"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="99"/>
@@ -4458,7 +4346,7 @@
         <f>Notes!E88</f>
         <v>9246.4312546957171</v>
       </c>
-      <c r="K29" s="162"/>
+      <c r="K29" s="153"/>
       <c r="L29" s="49"/>
       <c r="M29" s="49"/>
       <c r="N29" s="100"/>
@@ -4511,7 +4399,7 @@
         <f>Notes!E76</f>
         <v>1500</v>
       </c>
-      <c r="K31" s="162"/>
+      <c r="K31" s="153"/>
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="100"/>
@@ -4564,7 +4452,7 @@
         <f>Notes!E77</f>
         <v>100</v>
       </c>
-      <c r="K33" s="162"/>
+      <c r="K33" s="153"/>
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
       <c r="N33" s="100"/>
@@ -4683,7 +4571,7 @@
         <f>Dashboard!D42</f>
         <v>euro/MWh</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="155">
         <f>L38</f>
         <v>50713.749060856491</v>
       </c>
@@ -4692,11 +4580,11 @@
       <c r="H38" s="49"/>
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
-      <c r="K38" s="164">
+      <c r="K38" s="155">
         <f>Notes!E126</f>
         <v>60055.755466803734</v>
       </c>
-      <c r="L38" s="164">
+      <c r="L38" s="155">
         <f>Notes!E96</f>
         <v>50713.749060856491</v>
       </c>
@@ -4810,7 +4698,7 @@
         <f>Notes!E74</f>
         <v>15</v>
       </c>
-      <c r="K43" s="163"/>
+      <c r="K43" s="154"/>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
       <c r="N43" s="102"/>
@@ -5552,13 +5440,13 @@
         <v>28</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="108" t="s">
         <v>14</v>
@@ -5584,10 +5472,10 @@
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="133">
         <v>2015</v>
@@ -5599,7 +5487,7 @@
         <v>42948</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" s="135"/>
     </row>
@@ -5653,22 +5541,22 @@
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="133">
         <v>2010</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="136">
         <v>42948</v>
       </c>
       <c r="J11" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="135"/>
     </row>
@@ -5692,10 +5580,10 @@
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="133" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="133" t="s">
-        <v>105</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="133"/>
@@ -5703,10 +5591,10 @@
         <v>42948</v>
       </c>
       <c r="J13" s="134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -5774,23 +5662,23 @@
       </c>
       <c r="D18" s="133"/>
       <c r="E18" s="133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I18" s="136">
         <v>42979</v>
       </c>
       <c r="J18" s="134"/>
       <c r="K18" s="135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -5813,23 +5701,23 @@
       </c>
       <c r="D20" s="133"/>
       <c r="E20" s="133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F20" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I20" s="136">
         <v>42979</v>
       </c>
       <c r="J20" s="134"/>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -5852,7 +5740,7 @@
       </c>
       <c r="D22" s="138"/>
       <c r="E22" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
@@ -5860,7 +5748,7 @@
       <c r="I22" s="133"/>
       <c r="J22" s="134"/>
       <c r="K22" s="135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -6336,7 +6224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
@@ -6351,7 +6239,7 @@
     <col min="7" max="7" width="14.42578125" style="83" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" style="83"/>
     <col min="10" max="10" width="62.42578125" style="83" customWidth="1"/>
-    <col min="11" max="16384" width="9.28515625" style="83"/>
+    <col min="11" max="16384" width="10.7109375" style="83"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6372,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -6410,7 +6298,7 @@
         <v>Ecofys</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="88">
         <v>66</v>
@@ -6480,7 +6368,7 @@
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="88"/>
@@ -6500,7 +6388,7 @@
         <v>1.86</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
@@ -6529,7 +6417,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -6598,14 +6486,14 @@
         <v>ISSO 72 and Quintel calc</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="88">
         <f>MROUND(E37/1000,0.001)</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
@@ -6662,7 +6550,7 @@
       <c r="D27" s="45"/>
       <c r="E27" s="88"/>
       <c r="F27" s="109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
@@ -6673,13 +6561,13 @@
       <c r="B28" s="87"/>
       <c r="C28" s="9"/>
       <c r="D28" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="88">
         <v>80</v>
       </c>
       <c r="F28" s="109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
@@ -6690,13 +6578,13 @@
       <c r="B29" s="87"/>
       <c r="C29" s="9"/>
       <c r="D29" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="88">
         <v>115</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
@@ -6707,14 +6595,14 @@
       <c r="B30" s="87"/>
       <c r="C30" s="9"/>
       <c r="D30" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="88">
         <f>MROUND(AVERAGE(E28:E29),20)</f>
         <v>100</v>
       </c>
       <c r="F30" s="111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
@@ -6736,13 +6624,13 @@
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="D32" s="109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="109">
         <v>4.18</v>
       </c>
       <c r="F32" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
@@ -6753,13 +6641,13 @@
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="109">
         <v>10</v>
       </c>
       <c r="F33" s="109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="88"/>
       <c r="H33" s="88"/>
@@ -6770,13 +6658,13 @@
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" s="109">
         <v>50</v>
       </c>
       <c r="F34" s="109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="88"/>
       <c r="H34" s="88"/>
@@ -6787,14 +6675,14 @@
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="109">
         <f>E30</f>
         <v>100</v>
       </c>
       <c r="F35" s="109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
@@ -6805,14 +6693,14 @@
       <c r="B36" s="87"/>
       <c r="C36" s="88"/>
       <c r="D36" s="109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="112">
         <f>E35*(E34-E33)*E32</f>
         <v>16720</v>
       </c>
       <c r="F36" s="109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="88"/>
       <c r="H36" s="88"/>
@@ -6831,7 +6719,7 @@
         <v>4.6444444444444448</v>
       </c>
       <c r="F37" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G37" s="88"/>
       <c r="H37" s="88"/>
@@ -7204,10 +7092,10 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="87"/>
       <c r="C71" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="88"/>
       <c r="F71" s="88"/>
@@ -7220,10 +7108,10 @@
       <c r="B72" s="87"/>
       <c r="C72" s="9"/>
       <c r="D72" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="88" t="s">
         <v>115</v>
-      </c>
-      <c r="E72" s="88" t="s">
-        <v>116</v>
       </c>
       <c r="F72" s="88"/>
       <c r="G72" s="88"/>
@@ -7264,7 +7152,7 @@
       <c r="B75" s="87"/>
       <c r="C75" s="88"/>
       <c r="D75" s="83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" s="83">
         <v>9500</v>
@@ -7332,7 +7220,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J78" s="89"/>
     </row>
@@ -7345,10 +7233,10 @@
       <c r="G79" s="88"/>
       <c r="H79" s="88"/>
       <c r="I79" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J79" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K79" s="88"/>
     </row>
@@ -7356,7 +7244,7 @@
       <c r="B80" s="87"/>
       <c r="C80" s="88"/>
       <c r="D80" s="88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" s="88"/>
       <c r="F80" s="88"/>
@@ -7369,7 +7257,7 @@
       <c r="B81" s="87"/>
       <c r="C81" s="88"/>
       <c r="D81" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81" s="88"/>
       <c r="F81" s="88"/>
@@ -7382,13 +7270,13 @@
       <c r="B82" s="87"/>
       <c r="C82" s="88"/>
       <c r="D82" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="88">
         <v>3.25</v>
       </c>
       <c r="F82" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G82" s="88"/>
       <c r="H82" s="88"/>
@@ -7399,13 +7287,13 @@
       <c r="B83" s="87"/>
       <c r="C83" s="88"/>
       <c r="D83" s="90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E83" s="88">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F83" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G83" s="88"/>
       <c r="H83" s="88"/>
@@ -7427,13 +7315,13 @@
       <c r="B85" s="87"/>
       <c r="C85" s="88"/>
       <c r="D85" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E85" s="88">
         <v>7</v>
       </c>
       <c r="F85" s="88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G85" s="88"/>
       <c r="H85" s="88"/>
@@ -7477,7 +7365,7 @@
         <f>'Research data'!C29</f>
         <v>initial_investment</v>
       </c>
-      <c r="E88" s="159">
+      <c r="E88" s="150">
         <f>E75-(E96*E22)</f>
         <v>9246.4312546957171</v>
       </c>
@@ -7572,18 +7460,18 @@
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="87"/>
       <c r="C96" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" s="113" t="str">
         <f>'Research data'!C38</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E96" s="160">
+      <c r="E96" s="151">
         <f>E100*E101</f>
         <v>50713.749060856491</v>
       </c>
       <c r="F96" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G96" s="88"/>
       <c r="H96" s="88"/>
@@ -7594,13 +7482,13 @@
       <c r="B97" s="87"/>
       <c r="C97" s="88"/>
       <c r="D97" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E97" s="88">
         <v>200</v>
       </c>
       <c r="F97" s="88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G97" s="88"/>
       <c r="H97" s="88"/>
@@ -7611,7 +7499,7 @@
       <c r="B98" s="87"/>
       <c r="C98" s="88"/>
       <c r="D98" s="88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E98" s="88">
         <v>570</v>
@@ -7628,9 +7516,9 @@
       <c r="B99" s="87"/>
       <c r="C99" s="88"/>
       <c r="D99" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E99" s="159">
+        <v>148</v>
+      </c>
+      <c r="E99" s="150">
         <f>E98/1.21</f>
         <v>471.07438016528926</v>
       </c>
@@ -7646,14 +7534,14 @@
       <c r="B100" s="87"/>
       <c r="C100" s="88"/>
       <c r="D100" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="E100" s="158">
+        <v>158</v>
+      </c>
+      <c r="E100" s="149">
         <f>E99/E97</f>
         <v>2.3553719008264462</v>
       </c>
       <c r="F100" s="88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G100" s="88"/>
       <c r="H100" s="88"/>
@@ -7664,14 +7552,14 @@
       <c r="B101" s="87"/>
       <c r="C101" s="88"/>
       <c r="D101" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="E101" s="159">
+        <v>161</v>
+      </c>
+      <c r="E101" s="150">
         <f>E$35/E$37*1000</f>
         <v>21531.100478468896</v>
       </c>
       <c r="F101" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G101" s="88"/>
       <c r="H101" s="88"/>
@@ -7682,14 +7570,14 @@
       <c r="B102" s="87"/>
       <c r="C102" s="88"/>
       <c r="D102" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" s="159">
+        <v>159</v>
+      </c>
+      <c r="E102" s="150">
         <f>E96*E$22</f>
         <v>253.56874530428246</v>
       </c>
       <c r="F102" s="88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G102" s="88"/>
       <c r="H102" s="88"/>
@@ -7700,7 +7588,7 @@
       <c r="B103" s="87"/>
       <c r="C103" s="88"/>
       <c r="D103" s="88"/>
-      <c r="E103" s="159"/>
+      <c r="E103" s="150"/>
       <c r="F103" s="88"/>
       <c r="G103" s="88"/>
       <c r="H103" s="88"/>
@@ -7711,7 +7599,7 @@
       <c r="B104" s="87"/>
       <c r="C104" s="88"/>
       <c r="D104" s="88"/>
-      <c r="E104" s="159"/>
+      <c r="E104" s="150"/>
       <c r="F104" s="88"/>
       <c r="G104" s="88"/>
       <c r="H104" s="88"/>
@@ -7722,7 +7610,7 @@
       <c r="B105" s="87"/>
       <c r="C105" s="88"/>
       <c r="D105" s="88"/>
-      <c r="E105" s="159"/>
+      <c r="E105" s="150"/>
       <c r="F105" s="88"/>
       <c r="G105" s="88"/>
       <c r="H105" s="88"/>
@@ -7733,7 +7621,7 @@
       <c r="B106" s="87"/>
       <c r="C106" s="88"/>
       <c r="D106" s="88"/>
-      <c r="E106" s="159"/>
+      <c r="E106" s="150"/>
       <c r="F106" s="88"/>
       <c r="G106" s="88"/>
       <c r="H106" s="88"/>
@@ -7744,7 +7632,7 @@
       <c r="B107" s="87"/>
       <c r="C107" s="88"/>
       <c r="D107" s="88"/>
-      <c r="E107" s="159"/>
+      <c r="E107" s="150"/>
       <c r="F107" s="88"/>
       <c r="G107" s="88"/>
       <c r="H107" s="88"/>
@@ -7755,7 +7643,7 @@
       <c r="B108" s="87"/>
       <c r="C108" s="88"/>
       <c r="D108" s="88"/>
-      <c r="E108" s="159"/>
+      <c r="E108" s="150"/>
       <c r="F108" s="88"/>
       <c r="G108" s="88"/>
       <c r="H108" s="88"/>
@@ -7766,7 +7654,7 @@
       <c r="B109" s="87"/>
       <c r="C109" s="88"/>
       <c r="D109" s="88"/>
-      <c r="E109" s="159"/>
+      <c r="E109" s="150"/>
       <c r="F109" s="88"/>
       <c r="G109" s="88"/>
       <c r="H109" s="88"/>
@@ -7777,7 +7665,7 @@
       <c r="B110" s="87"/>
       <c r="C110" s="88"/>
       <c r="D110" s="88"/>
-      <c r="E110" s="159"/>
+      <c r="E110" s="150"/>
       <c r="F110" s="88"/>
       <c r="G110" s="88"/>
       <c r="H110" s="88"/>
@@ -7788,7 +7676,7 @@
       <c r="B111" s="87"/>
       <c r="C111" s="88"/>
       <c r="D111" s="88"/>
-      <c r="E111" s="159"/>
+      <c r="E111" s="150"/>
       <c r="F111" s="88"/>
       <c r="G111" s="88"/>
       <c r="H111" s="88"/>
@@ -7799,7 +7687,7 @@
       <c r="B112" s="87"/>
       <c r="C112" s="88"/>
       <c r="D112" s="88"/>
-      <c r="E112" s="159"/>
+      <c r="E112" s="150"/>
       <c r="F112" s="88"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
@@ -7810,7 +7698,7 @@
       <c r="B113" s="87"/>
       <c r="C113" s="88"/>
       <c r="D113" s="88"/>
-      <c r="E113" s="159"/>
+      <c r="E113" s="150"/>
       <c r="F113" s="88"/>
       <c r="G113" s="88"/>
       <c r="H113" s="88"/>
@@ -7821,7 +7709,7 @@
       <c r="B114" s="87"/>
       <c r="C114" s="88"/>
       <c r="D114" s="88"/>
-      <c r="E114" s="159"/>
+      <c r="E114" s="150"/>
       <c r="F114" s="88"/>
       <c r="G114" s="88"/>
       <c r="H114" s="88"/>
@@ -7832,7 +7720,7 @@
       <c r="B115" s="87"/>
       <c r="C115" s="88"/>
       <c r="D115" s="88"/>
-      <c r="E115" s="159"/>
+      <c r="E115" s="150"/>
       <c r="F115" s="88"/>
       <c r="G115" s="88"/>
       <c r="H115" s="88"/>
@@ -7843,7 +7731,7 @@
       <c r="B116" s="87"/>
       <c r="C116" s="88"/>
       <c r="D116" s="88"/>
-      <c r="E116" s="159"/>
+      <c r="E116" s="150"/>
       <c r="F116" s="88"/>
       <c r="G116" s="88"/>
       <c r="H116" s="88"/>
@@ -7854,7 +7742,7 @@
       <c r="B117" s="87"/>
       <c r="C117" s="88"/>
       <c r="D117" s="88"/>
-      <c r="E117" s="159"/>
+      <c r="E117" s="150"/>
       <c r="F117" s="88"/>
       <c r="G117" s="88"/>
       <c r="H117" s="88"/>
@@ -7865,7 +7753,7 @@
       <c r="B118" s="87"/>
       <c r="C118" s="88"/>
       <c r="D118" s="88"/>
-      <c r="E118" s="159"/>
+      <c r="E118" s="150"/>
       <c r="F118" s="88"/>
       <c r="G118" s="88"/>
       <c r="H118" s="88"/>
@@ -7876,7 +7764,7 @@
       <c r="B119" s="87"/>
       <c r="C119" s="88"/>
       <c r="D119" s="88"/>
-      <c r="E119" s="159"/>
+      <c r="E119" s="150"/>
       <c r="F119" s="88"/>
       <c r="G119" s="88"/>
       <c r="H119" s="88"/>
@@ -7887,7 +7775,7 @@
       <c r="B120" s="87"/>
       <c r="C120" s="88"/>
       <c r="D120" s="88"/>
-      <c r="E120" s="159"/>
+      <c r="E120" s="150"/>
       <c r="F120" s="88"/>
       <c r="G120" s="88"/>
       <c r="H120" s="88"/>
@@ -7898,7 +7786,7 @@
       <c r="B121" s="87"/>
       <c r="C121" s="88"/>
       <c r="D121" s="88"/>
-      <c r="E121" s="159"/>
+      <c r="E121" s="150"/>
       <c r="F121" s="88"/>
       <c r="G121" s="88"/>
       <c r="H121" s="88"/>
@@ -7909,7 +7797,7 @@
       <c r="B122" s="87"/>
       <c r="C122" s="88"/>
       <c r="D122" s="88"/>
-      <c r="E122" s="159"/>
+      <c r="E122" s="150"/>
       <c r="F122" s="88"/>
       <c r="G122" s="88"/>
       <c r="H122" s="88"/>
@@ -7920,7 +7808,7 @@
       <c r="B123" s="87"/>
       <c r="C123" s="88"/>
       <c r="D123" s="88"/>
-      <c r="E123" s="159"/>
+      <c r="E123" s="150"/>
       <c r="F123" s="88"/>
       <c r="G123" s="88"/>
       <c r="H123" s="88"/>
@@ -7931,7 +7819,7 @@
       <c r="B124" s="87"/>
       <c r="C124" s="88"/>
       <c r="D124" s="88"/>
-      <c r="E124" s="159"/>
+      <c r="E124" s="150"/>
       <c r="F124" s="88"/>
       <c r="G124" s="88"/>
       <c r="H124" s="88"/>
@@ -7942,7 +7830,7 @@
       <c r="B125" s="87"/>
       <c r="C125" s="88"/>
       <c r="D125" s="88"/>
-      <c r="E125" s="159"/>
+      <c r="E125" s="150"/>
       <c r="F125" s="88"/>
       <c r="G125" s="88"/>
       <c r="H125" s="88"/>
@@ -7952,18 +7840,18 @@
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="87"/>
       <c r="C126" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D126" s="113" t="str">
         <f>'Research data'!C38</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E126" s="160">
+      <c r="E126" s="151">
         <f>E130*E131</f>
         <v>60055.755466803734</v>
       </c>
       <c r="F126" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G126" s="88"/>
       <c r="H126" s="88"/>
@@ -7974,13 +7862,13 @@
       <c r="B127" s="87"/>
       <c r="C127" s="88"/>
       <c r="D127" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E127" s="88">
         <v>120</v>
       </c>
       <c r="F127" s="88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G127" s="88"/>
       <c r="H127" s="88"/>
@@ -7991,7 +7879,7 @@
       <c r="B128" s="87"/>
       <c r="C128" s="88"/>
       <c r="D128" s="88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E128" s="88">
         <v>405</v>
@@ -8008,9 +7896,9 @@
       <c r="B129" s="87"/>
       <c r="C129" s="88"/>
       <c r="D129" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" s="159">
+        <v>148</v>
+      </c>
+      <c r="E129" s="150">
         <f>E128/1.21</f>
         <v>334.71074380165288</v>
       </c>
@@ -8026,14 +7914,14 @@
       <c r="B130" s="87"/>
       <c r="C130" s="88"/>
       <c r="D130" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="E130" s="158">
+        <v>158</v>
+      </c>
+      <c r="E130" s="149">
         <f>E129/E127</f>
         <v>2.7892561983471071</v>
       </c>
       <c r="F130" s="88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G130" s="88"/>
       <c r="H130" s="88"/>
@@ -8044,14 +7932,14 @@
       <c r="B131" s="87"/>
       <c r="C131" s="88"/>
       <c r="D131" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="E131" s="159">
+        <v>161</v>
+      </c>
+      <c r="E131" s="150">
         <f>E$35/E$37*1000</f>
         <v>21531.100478468896</v>
       </c>
       <c r="F131" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G131" s="88"/>
       <c r="H131" s="88"/>
@@ -8062,14 +7950,14 @@
       <c r="B132" s="87"/>
       <c r="C132" s="88"/>
       <c r="D132" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E132" s="159">
+        <v>159</v>
+      </c>
+      <c r="E132" s="150">
         <f>E126*E$22</f>
         <v>300.27877733401868</v>
       </c>
       <c r="F132" s="88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G132" s="88"/>
       <c r="H132" s="88"/>
@@ -8080,7 +7968,7 @@
       <c r="B133" s="87"/>
       <c r="C133" s="88"/>
       <c r="D133" s="88"/>
-      <c r="E133" s="159"/>
+      <c r="E133" s="150"/>
       <c r="F133" s="88"/>
       <c r="G133" s="88"/>
       <c r="H133" s="88"/>
@@ -8091,7 +7979,7 @@
       <c r="B134" s="87"/>
       <c r="C134" s="88"/>
       <c r="D134" s="88"/>
-      <c r="E134" s="159"/>
+      <c r="E134" s="150"/>
       <c r="F134" s="88"/>
       <c r="G134" s="88"/>
       <c r="H134" s="88"/>
@@ -8102,7 +7990,7 @@
       <c r="B135" s="87"/>
       <c r="C135" s="88"/>
       <c r="D135" s="88"/>
-      <c r="E135" s="159"/>
+      <c r="E135" s="150"/>
       <c r="F135" s="88"/>
       <c r="G135" s="88"/>
       <c r="H135" s="88"/>
@@ -8113,7 +8001,7 @@
       <c r="B136" s="87"/>
       <c r="C136" s="88"/>
       <c r="D136" s="88"/>
-      <c r="E136" s="159"/>
+      <c r="E136" s="150"/>
       <c r="F136" s="88"/>
       <c r="G136" s="88"/>
       <c r="H136" s="88"/>
@@ -8124,7 +8012,7 @@
       <c r="B137" s="87"/>
       <c r="C137" s="88"/>
       <c r="D137" s="88"/>
-      <c r="E137" s="159"/>
+      <c r="E137" s="150"/>
       <c r="F137" s="88"/>
       <c r="G137" s="88"/>
       <c r="H137" s="88"/>
@@ -8135,7 +8023,7 @@
       <c r="B138" s="87"/>
       <c r="C138" s="88"/>
       <c r="D138" s="88"/>
-      <c r="E138" s="159"/>
+      <c r="E138" s="150"/>
       <c r="F138" s="88"/>
       <c r="G138" s="88"/>
       <c r="H138" s="88"/>
@@ -8146,7 +8034,7 @@
       <c r="B139" s="87"/>
       <c r="C139" s="88"/>
       <c r="D139" s="88"/>
-      <c r="E139" s="159"/>
+      <c r="E139" s="150"/>
       <c r="F139" s="88"/>
       <c r="G139" s="88"/>
       <c r="H139" s="88"/>
@@ -8157,7 +8045,7 @@
       <c r="B140" s="87"/>
       <c r="C140" s="88"/>
       <c r="D140" s="88"/>
-      <c r="E140" s="159"/>
+      <c r="E140" s="150"/>
       <c r="F140" s="88"/>
       <c r="G140" s="88"/>
       <c r="H140" s="88"/>
@@ -8168,7 +8056,7 @@
       <c r="B141" s="87"/>
       <c r="C141" s="88"/>
       <c r="D141" s="88"/>
-      <c r="E141" s="159"/>
+      <c r="E141" s="150"/>
       <c r="F141" s="88"/>
       <c r="G141" s="88"/>
       <c r="H141" s="88"/>
@@ -8179,7 +8067,7 @@
       <c r="B142" s="87"/>
       <c r="C142" s="88"/>
       <c r="D142" s="88"/>
-      <c r="E142" s="159"/>
+      <c r="E142" s="150"/>
       <c r="F142" s="88"/>
       <c r="G142" s="88"/>
       <c r="H142" s="88"/>
@@ -8190,7 +8078,7 @@
       <c r="B143" s="87"/>
       <c r="C143" s="88"/>
       <c r="D143" s="88"/>
-      <c r="E143" s="159"/>
+      <c r="E143" s="150"/>
       <c r="F143" s="88"/>
       <c r="G143" s="88"/>
       <c r="H143" s="88"/>
@@ -8201,7 +8089,7 @@
       <c r="B144" s="87"/>
       <c r="C144" s="88"/>
       <c r="D144" s="88"/>
-      <c r="E144" s="159"/>
+      <c r="E144" s="150"/>
       <c r="F144" s="88"/>
       <c r="G144" s="88"/>
       <c r="H144" s="88"/>
@@ -8212,7 +8100,7 @@
       <c r="B145" s="87"/>
       <c r="C145" s="88"/>
       <c r="D145" s="88"/>
-      <c r="E145" s="159"/>
+      <c r="E145" s="150"/>
       <c r="F145" s="88"/>
       <c r="G145" s="88"/>
       <c r="H145" s="88"/>
@@ -8223,7 +8111,7 @@
       <c r="B146" s="87"/>
       <c r="C146" s="88"/>
       <c r="D146" s="88"/>
-      <c r="E146" s="159"/>
+      <c r="E146" s="150"/>
       <c r="F146" s="88"/>
       <c r="G146" s="88"/>
       <c r="H146" s="88"/>
@@ -8234,7 +8122,7 @@
       <c r="B147" s="87"/>
       <c r="C147" s="88"/>
       <c r="D147" s="88"/>
-      <c r="E147" s="159"/>
+      <c r="E147" s="150"/>
       <c r="F147" s="88"/>
       <c r="G147" s="88"/>
       <c r="H147" s="88"/>
@@ -8245,7 +8133,7 @@
       <c r="B148" s="87"/>
       <c r="C148" s="88"/>
       <c r="D148" s="88"/>
-      <c r="E148" s="159"/>
+      <c r="E148" s="150"/>
       <c r="F148" s="88"/>
       <c r="G148" s="88"/>
       <c r="H148" s="88"/>
@@ -8256,7 +8144,7 @@
       <c r="B149" s="87"/>
       <c r="C149" s="88"/>
       <c r="D149" s="88"/>
-      <c r="E149" s="159"/>
+      <c r="E149" s="150"/>
       <c r="F149" s="88"/>
       <c r="G149" s="88"/>
       <c r="H149" s="88"/>
@@ -8267,7 +8155,7 @@
       <c r="B150" s="87"/>
       <c r="C150" s="88"/>
       <c r="D150" s="88"/>
-      <c r="E150" s="159"/>
+      <c r="E150" s="150"/>
       <c r="F150" s="88"/>
       <c r="G150" s="88"/>
       <c r="H150" s="88"/>
@@ -8278,7 +8166,7 @@
       <c r="B151" s="87"/>
       <c r="C151" s="88"/>
       <c r="D151" s="88"/>
-      <c r="E151" s="159"/>
+      <c r="E151" s="150"/>
       <c r="F151" s="88"/>
       <c r="G151" s="88"/>
       <c r="H151" s="88"/>
@@ -8289,7 +8177,7 @@
       <c r="B152" s="87"/>
       <c r="C152" s="88"/>
       <c r="D152" s="88"/>
-      <c r="E152" s="159"/>
+      <c r="E152" s="150"/>
       <c r="F152" s="88"/>
       <c r="G152" s="88"/>
       <c r="H152" s="88"/>
@@ -8300,7 +8188,7 @@
       <c r="B153" s="87"/>
       <c r="C153" s="88"/>
       <c r="D153" s="88"/>
-      <c r="E153" s="159"/>
+      <c r="E153" s="150"/>
       <c r="F153" s="88"/>
       <c r="G153" s="88"/>
       <c r="H153" s="88"/>
@@ -8311,7 +8199,7 @@
       <c r="B154" s="87"/>
       <c r="C154" s="88"/>
       <c r="D154" s="88"/>
-      <c r="E154" s="159"/>
+      <c r="E154" s="150"/>
       <c r="F154" s="88"/>
       <c r="G154" s="88"/>
       <c r="H154" s="88"/>
@@ -8322,7 +8210,7 @@
       <c r="B155" s="87"/>
       <c r="C155" s="88"/>
       <c r="D155" s="88"/>
-      <c r="E155" s="159"/>
+      <c r="E155" s="150"/>
       <c r="F155" s="88"/>
       <c r="G155" s="88"/>
       <c r="H155" s="88"/>
@@ -8333,7 +8221,7 @@
       <c r="B156" s="87"/>
       <c r="C156" s="88"/>
       <c r="D156" s="88"/>
-      <c r="E156" s="159"/>
+      <c r="E156" s="150"/>
       <c r="F156" s="88"/>
       <c r="G156" s="88"/>
       <c r="H156" s="88"/>

--- a/nodes_source_analyses/households/households_water_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_heatpump_air_water_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C0B96-7D7A-134A-BBBE-1AE054A305D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="24880" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="24880" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -223,36 +224,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -544,7 +515,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -552,7 +523,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1243,7 +1214,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1420,7 +1391,6 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1743,6 +1713,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1764,7 +1737,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1802,7 +1781,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1840,7 +1825,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1878,7 +1869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1916,7 +1913,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2376,58 +2379,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="13"/>
+    <col min="1" max="1" width="3.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="19" customFormat="1">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -2436,118 +2439,118 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="58" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C9" s="59"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="60"/>
       <c r="C10" s="61"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="60" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="60"/>
       <c r="C12" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="60"/>
       <c r="C13" s="63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="60"/>
       <c r="C14" s="61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="60" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="60"/>
       <c r="C17" s="65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="60"/>
       <c r="C18" s="66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="60"/>
       <c r="C19" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="68"/>
       <c r="C20" s="69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="68"/>
       <c r="C21" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="68"/>
       <c r="C22" s="71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="68"/>
       <c r="C23" s="72" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2557,67 +2560,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K54"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="26" customWidth="1"/>
     <col min="3" max="3" width="46" style="26" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="45" style="26" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="48" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="26"/>
+    <col min="10" max="10" width="5.5" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="2:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
+    <row r="4" spans="2:10" ht="34" customHeight="1">
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="27"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2628,7 +2631,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="2:10" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="33" customFormat="1" ht="19">
       <c r="B7" s="73"/>
       <c r="C7" s="10" t="s">
         <v>29</v>
@@ -2649,7 +2652,7 @@
       </c>
       <c r="J7" s="77"/>
     </row>
-    <row r="8" spans="2:10" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="33" customFormat="1" ht="19">
       <c r="B8" s="15"/>
       <c r="C8" s="9"/>
       <c r="D8" s="23"/>
@@ -2660,10 +2663,10 @@
       <c r="I8" s="9"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="15"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="9"/>
@@ -2672,10 +2675,10 @@
       <c r="H9" s="9"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="15"/>
       <c r="C10" s="81" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>4</v>
@@ -2693,10 +2696,10 @@
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="15"/>
       <c r="C11" s="81" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>4</v>
@@ -2714,10 +2717,10 @@
       </c>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="15"/>
       <c r="C12" s="81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>4</v>
@@ -2735,10 +2738,10 @@
       </c>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="15"/>
       <c r="C13" s="93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>4</v>
@@ -2756,10 +2759,10 @@
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="15"/>
       <c r="C14" s="93" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>4</v>
@@ -2777,15 +2780,15 @@
       </c>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B15" s="15"/>
       <c r="C15" s="93" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="142">
         <f>'Research data'!E11</f>
         <v>4.2999999999999997E-2</v>
       </c>
@@ -2798,15 +2801,15 @@
       </c>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B16" s="15"/>
       <c r="C16" s="93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="148">
+        <v>106</v>
+      </c>
+      <c r="E16" s="147">
         <f>'Research data'!E12</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2819,15 +2822,15 @@
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="2:11" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="33" customFormat="1" ht="20" thickBot="1">
       <c r="B17" s="15"/>
       <c r="C17" s="93" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="144">
+        <v>132</v>
+      </c>
+      <c r="E17" s="143">
         <f>'Research data'!E13</f>
         <v>0</v>
       </c>
@@ -2840,7 +2843,7 @@
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="29"/>
       <c r="C18" s="25" t="s">
         <v>31</v>
@@ -2862,7 +2865,7 @@
       <c r="J18" s="78"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="29"/>
       <c r="C19" s="25" t="s">
         <v>33</v>
@@ -2884,10 +2887,10 @@
       <c r="J19" s="78"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="29"/>
       <c r="C20" s="81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>4</v>
@@ -2906,7 +2909,7 @@
       <c r="J20" s="78"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="29"/>
       <c r="C21" s="25" t="s">
         <v>8</v>
@@ -2928,7 +2931,7 @@
       <c r="J21" s="78"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="25" t="s">
         <v>36</v>
@@ -2950,7 +2953,7 @@
       <c r="J22" s="78"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="29"/>
       <c r="C23" s="25" t="s">
         <v>37</v>
@@ -2972,7 +2975,7 @@
       <c r="J23" s="78"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="29"/>
       <c r="C24" s="25" t="s">
         <v>38</v>
@@ -2995,7 +2998,7 @@
       </c>
       <c r="J24" s="78"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="29"/>
       <c r="C25" s="25" t="s">
         <v>39</v>
@@ -3018,90 +3021,68 @@
       </c>
       <c r="J25" s="78"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="29"/>
-      <c r="C26" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="130">
-        <f>'Research data'!E22</f>
-        <v>0.85950853472004995</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E22,'Research data'!F22:M22,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="78"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="29"/>
-      <c r="C27" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="130">
-        <f>'Research data'!E23</f>
-        <v>0.81039768597245498</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E23,'Research data'!F23:M23,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
+      <c r="C27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="78"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="29"/>
-      <c r="C28" s="49" t="s">
-        <v>60</v>
+      <c r="C28" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="130">
+        <v>30</v>
+      </c>
+      <c r="E28" s="155">
         <f>'Research data'!E24</f>
-        <v>0.90016524332298198</v>
+        <v>9246.4312546957171</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="132" t="s">
-        <v>65</v>
+      <c r="G28" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="131" t="str">
         <f ca="1">LOOKUP('Research data'!E24,'Research data'!F24:M24,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
+        <v>DHPA</v>
       </c>
       <c r="J28" s="78"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="29"/>
-      <c r="C29" s="49" t="s">
-        <v>61</v>
+      <c r="C29" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E29" s="130">
         <f>'Research data'!E25</f>
-        <v>1.1440193858509899</v>
+        <v>0</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="132" t="s">
-        <v>66</v>
+      <c r="G29" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="131" t="str">
@@ -3110,83 +3091,105 @@
       </c>
       <c r="J29" s="78"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="29"/>
-      <c r="C30" s="49" t="s">
-        <v>62</v>
+      <c r="C30" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E30" s="130">
         <f>'Research data'!E26</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="25"/>
-      <c r="G30" s="120" t="s">
-        <v>67</v>
+      <c r="G30" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="131" t="str">
         <f ca="1">LOOKUP('Research data'!E26,'Research data'!F26:M26,'Research data'!F$3:L$3)</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J30" s="78"/>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1">
+      <c r="B31" s="29"/>
+      <c r="C31" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="130">
+        <f>'Research data'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="131" t="str">
+        <f ca="1">LOOKUP('Research data'!E27,'Research data'!F27:M27,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J30" s="78"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="29"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
       <c r="J31" s="78"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="29"/>
-      <c r="C32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="C32" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="130">
+        <f>'Research data'!E28</f>
+        <v>100</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="131" t="str">
+        <f ca="1">LOOKUP('Research data'!E28,'Research data'!F28:M28,'Research data'!F$3:L$3)</f>
+        <v>DHPA</v>
+      </c>
       <c r="J32" s="78"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="29"/>
       <c r="C33" s="25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="156">
+        <v>49</v>
+      </c>
+      <c r="E33" s="130">
         <f>'Research data'!E29</f>
-        <v>9246.4312546957171</v>
+        <v>0</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="131" t="str">
         <f ca="1">LOOKUP('Research data'!E29,'Research data'!F29:M29,'Research data'!F$3:L$3)</f>
-        <v>DHPA</v>
+        <v>Quintel WD</v>
       </c>
       <c r="J33" s="78"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="29"/>
       <c r="C34" s="25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E34" s="130">
         <f>'Research data'!E30</f>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="131" t="str">
@@ -3203,45 +3206,43 @@
       </c>
       <c r="J34" s="78"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="29"/>
       <c r="C35" s="25" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E35" s="130">
         <f>'Research data'!E31</f>
-        <v>1500</v>
+        <v>0.04</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="131" t="str">
         <f ca="1">LOOKUP('Research data'!E31,'Research data'!F31:M31,'Research data'!F$3:L$3)</f>
-        <v>DHPA</v>
+        <v>Quintel WD</v>
       </c>
       <c r="J35" s="78"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="29"/>
       <c r="C36" s="25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E36" s="130">
         <f>'Research data'!E32</f>
         <v>0</v>
       </c>
       <c r="F36" s="25"/>
-      <c r="G36" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="131" t="str">
         <f ca="1">LOOKUP('Research data'!E32,'Research data'!F32:M32,'Research data'!F$3:L$3)</f>
@@ -3249,180 +3250,176 @@
       </c>
       <c r="J36" s="78"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
+    <row r="37" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1">
+      <c r="B37" s="15"/>
       <c r="C37" s="25" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="E37" s="130">
         <f>'Research data'!E33</f>
-        <v>100</v>
+        <v>50713.749060856491</v>
       </c>
       <c r="F37" s="25"/>
-      <c r="G37" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E33,'Research data'!F33:M33,'Research data'!F$3:L$3)</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J37" s="78"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'Research data'!L3</f>
+        <v>Zonenboiler-zelfbouw</v>
+      </c>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="29"/>
-      <c r="C38" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="130">
-        <f>'Research data'!E34</f>
-        <v>0</v>
-      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E34,'Research data'!F34:M34,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
+      <c r="I38" s="24"/>
       <c r="J38" s="78"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="29"/>
-      <c r="C39" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="130">
-        <f>'Research data'!E35</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E35,'Research data'!F35:M35,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
+      <c r="C39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="78"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="29"/>
       <c r="C40" s="25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="130">
+        <v>3</v>
+      </c>
+      <c r="E40" s="35">
         <f>'Research data'!E36</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H40" s="25"/>
-      <c r="I40" s="131" t="str">
+      <c r="I40" s="82" t="str">
         <f ca="1">LOOKUP('Research data'!E36,'Research data'!F36:M36,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J40" s="78"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="29"/>
       <c r="C41" s="25" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="130">
+        <v>1</v>
+      </c>
+      <c r="E41" s="35">
         <f>'Research data'!E37</f>
         <v>0</v>
       </c>
       <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="H41" s="25"/>
-      <c r="I41" s="131" t="str">
+      <c r="I41" s="82" t="str">
         <f ca="1">LOOKUP('Research data'!E37,'Research data'!F37:M37,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J41" s="78"/>
     </row>
-    <row r="42" spans="2:10" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
+      <c r="B42" s="29"/>
       <c r="C42" s="25" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="130">
+        <v>1</v>
+      </c>
+      <c r="E42" s="35">
         <f>'Research data'!E38</f>
-        <v>50713.749060856491</v>
+        <v>15</v>
       </c>
       <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="131" t="str">
-        <f>'Research data'!L3</f>
-        <v>Zonenboiler-zelfbouw</v>
-      </c>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="82" t="str">
+        <f ca="1">LOOKUP('Research data'!E38,'Research data'!F38:M38,'Research data'!F$3:L$3)</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J42" s="78"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="29"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="C43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="35">
+        <f>'Research data'!E39</f>
+        <v>0</v>
+      </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="82" t="str">
+        <f ca="1">LOOKUP('Research data'!E39,'Research data'!F39:M39,'Research data'!F$3:L$3)</f>
+        <v>Quintel WD</v>
+      </c>
       <c r="J43" s="78"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="29"/>
-      <c r="C44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
+      <c r="C44" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="35">
+        <f>'Research data'!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="82" t="str">
+        <f ca="1">LOOKUP('Research data'!E40,'Research data'!F40:M40,'Research data'!F$3:L$3)</f>
+        <v>Quintel WD</v>
+      </c>
       <c r="J44" s="78"/>
     </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="17" thickBot="1">
       <c r="B45" s="29"/>
-      <c r="C45" s="25" t="s">
-        <v>34</v>
+      <c r="C45" s="80" t="s">
+        <v>80</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" s="35">
         <f>'Research data'!E41</f>
         <v>0</v>
       </c>
       <c r="F45" s="25"/>
-      <c r="G45" s="25" t="s">
-        <v>13</v>
-      </c>
+      <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="82" t="str">
         <f ca="1">LOOKUP('Research data'!E41,'Research data'!F41:M41,'Research data'!F$3:L$3)</f>
@@ -3430,22 +3427,20 @@
       </c>
       <c r="J45" s="78"/>
     </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="17" thickBot="1">
       <c r="B46" s="29"/>
-      <c r="C46" s="25" t="s">
-        <v>46</v>
+      <c r="C46" s="80" t="s">
+        <v>81</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="35">
         <f>'Research data'!E42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F46" s="25"/>
-      <c r="G46" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="82" t="str">
         <f ca="1">LOOKUP('Research data'!E42,'Research data'!F42:M42,'Research data'!F$3:L$3)</f>
@@ -3453,40 +3448,38 @@
       </c>
       <c r="J46" s="78"/>
     </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="17" thickBot="1">
       <c r="B47" s="29"/>
-      <c r="C47" s="25" t="s">
-        <v>47</v>
+      <c r="C47" s="80" t="s">
+        <v>82</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" s="35">
         <f>'Research data'!E43</f>
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F47" s="25"/>
-      <c r="G47" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="82" t="str">
         <f ca="1">LOOKUP('Research data'!E43,'Research data'!F43:M43,'Research data'!F$3:L$3)</f>
-        <v>DHPA</v>
+        <v>Quintel WD</v>
       </c>
       <c r="J47" s="78"/>
     </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="17" thickBot="1">
       <c r="B48" s="29"/>
-      <c r="C48" s="25" t="s">
-        <v>32</v>
+      <c r="C48" s="80" t="s">
+        <v>83</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="35">
         <f>'Research data'!E44</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -3497,121 +3490,16 @@
       </c>
       <c r="J48" s="78"/>
     </row>
-    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
-      <c r="C49" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="35">
-        <f>'Research data'!E45</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E45,'Research data'!F45:M45,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J49" s="78"/>
-    </row>
-    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
-      <c r="C50" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="35">
-        <f>'Research data'!E46</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E46,'Research data'!F46:M46,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J50" s="78"/>
-    </row>
-    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
-      <c r="C51" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="35">
-        <f>'Research data'!E47</f>
-        <v>7</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E47,'Research data'!F47:M47,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J51" s="78"/>
-    </row>
-    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="29"/>
-      <c r="C52" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="35">
-        <f>'Research data'!E48</f>
-        <v>1.5</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E48,'Research data'!F48:M48,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J52" s="78"/>
-    </row>
-    <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="29"/>
-      <c r="C53" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="35">
-        <f>'Research data'!E49</f>
-        <v>7</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E49,'Research data'!F49:M49,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J53" s="78"/>
-    </row>
-    <row r="54" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
+    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3623,35 +3511,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:N82"/>
+  <dimension ref="B1:N77"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C65"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" style="50" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="50" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="50" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="50" customWidth="1"/>
     <col min="6" max="7" width="4" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="50" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="50" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="60" style="50" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="50"/>
+    <col min="15" max="16384" width="10.6640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -3666,16 +3554,16 @@
       <c r="M2" s="52"/>
       <c r="N2" s="95"/>
     </row>
-    <row r="3" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" s="16" customFormat="1">
       <c r="B3" s="15"/>
       <c r="C3" s="79" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
@@ -3700,13 +3588,13 @@
         <v>Zonenboiler-zelfbouw</v>
       </c>
       <c r="M3" s="79" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N3" s="96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="53"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3721,7 +3609,7 @@
       <c r="M4" s="55"/>
       <c r="N4" s="97"/>
     </row>
-    <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="17" thickBot="1">
       <c r="B5" s="53"/>
       <c r="C5" s="9" t="str">
         <f>Dashboard!C9</f>
@@ -3739,7 +3627,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="98"/>
     </row>
-    <row r="6" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="17" thickBot="1">
       <c r="B6" s="53"/>
       <c r="C6" s="49" t="str">
         <f>Dashboard!C10</f>
@@ -3765,7 +3653,7 @@
       </c>
       <c r="N6" s="89"/>
     </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="17" thickBot="1">
       <c r="B7" s="53"/>
       <c r="C7" s="49" t="str">
         <f>Dashboard!C11</f>
@@ -3791,7 +3679,7 @@
       </c>
       <c r="N7" s="89"/>
     </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="17" thickBot="1">
       <c r="B8" s="53"/>
       <c r="C8" s="49" t="str">
         <f>Dashboard!C12</f>
@@ -3817,7 +3705,7 @@
       </c>
       <c r="N8" s="98"/>
     </row>
-    <row r="9" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="17" thickBot="1">
       <c r="B9" s="53"/>
       <c r="C9" s="49" t="str">
         <f>Dashboard!C13</f>
@@ -3844,7 +3732,7 @@
       <c r="M9" s="56"/>
       <c r="N9" s="98"/>
     </row>
-    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="17" thickBot="1">
       <c r="B10" s="53"/>
       <c r="C10" s="49" t="str">
         <f>Dashboard!C14</f>
@@ -3871,7 +3759,7 @@
       <c r="M10" s="56"/>
       <c r="N10" s="98"/>
     </row>
-    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="17" thickBot="1">
       <c r="B11" s="53"/>
       <c r="C11" s="49" t="str">
         <f>Dashboard!C15</f>
@@ -3898,7 +3786,7 @@
       <c r="M11" s="56"/>
       <c r="N11" s="98"/>
     </row>
-    <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="17" thickBot="1">
       <c r="B12" s="53"/>
       <c r="C12" s="49" t="str">
         <f>Dashboard!C16</f>
@@ -3925,13 +3813,13 @@
       <c r="M12" s="123"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="17" thickBot="1">
       <c r="B13" s="53"/>
       <c r="C13" s="49" t="str">
         <f>Dashboard!C17</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="145" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="121">
@@ -3941,18 +3829,18 @@
       <c r="F13" s="123"/>
       <c r="G13" s="123"/>
       <c r="H13" s="123"/>
-      <c r="I13" s="145"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="123"/>
       <c r="K13" s="123"/>
       <c r="L13" s="123"/>
-      <c r="M13" s="147">
+      <c r="M13" s="146">
         <v>0</v>
       </c>
       <c r="N13" s="89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17" thickBot="1">
       <c r="B14" s="53"/>
       <c r="C14" s="49" t="str">
         <f>Dashboard!C18</f>
@@ -3978,7 +3866,7 @@
       </c>
       <c r="N14" s="89"/>
     </row>
-    <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="17" thickBot="1">
       <c r="B15" s="53"/>
       <c r="C15" s="49" t="str">
         <f>Dashboard!C19</f>
@@ -4004,7 +3892,7 @@
       </c>
       <c r="N15" s="89"/>
     </row>
-    <row r="16" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="17" thickBot="1">
       <c r="B16" s="53"/>
       <c r="C16" s="49" t="str">
         <f>Dashboard!C20</f>
@@ -4030,7 +3918,7 @@
       </c>
       <c r="N16" s="89"/>
     </row>
-    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="17" thickBot="1">
       <c r="B17" s="53"/>
       <c r="C17" s="49" t="str">
         <f>Dashboard!C21</f>
@@ -4056,7 +3944,7 @@
       </c>
       <c r="N17" s="89"/>
     </row>
-    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="17" thickBot="1">
       <c r="B18" s="53"/>
       <c r="C18" s="49" t="str">
         <f>Dashboard!C22</f>
@@ -4082,7 +3970,7 @@
       </c>
       <c r="N18" s="89"/>
     </row>
-    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="17" thickBot="1">
       <c r="B19" s="53"/>
       <c r="C19" s="49" t="str">
         <f>Dashboard!C23</f>
@@ -4108,7 +3996,7 @@
       </c>
       <c r="N19" s="89"/>
     </row>
-    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="17" thickBot="1">
       <c r="B20" s="53"/>
       <c r="C20" s="49" t="str">
         <f>Dashboard!C24</f>
@@ -4134,7 +4022,7 @@
       </c>
       <c r="N20" s="89"/>
     </row>
-    <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="17" thickBot="1">
       <c r="B21" s="53"/>
       <c r="C21" s="49" t="str">
         <f>Dashboard!C25</f>
@@ -4156,102 +4044,84 @@
         <f>Notes!E78</f>
         <v>0.01</v>
       </c>
-      <c r="K21" s="152"/>
+      <c r="K21" s="151"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="99"/>
     </row>
-    <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14">
       <c r="B22" s="53"/>
-      <c r="C22" s="49" t="str">
-        <f>Dashboard!C26</f>
-        <v>simult_sd</v>
-      </c>
-      <c r="D22" s="49" t="str">
-        <f>Dashboard!D26</f>
-        <v>-</v>
-      </c>
-      <c r="E22" s="118">
-        <f>M22</f>
-        <v>0.85950853472004995</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="118">
-        <v>0.85950853472004995</v>
-      </c>
-      <c r="N22" s="89"/>
-    </row>
-    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="98"/>
+    </row>
+    <row r="23" spans="2:14" ht="17" thickBot="1">
       <c r="B23" s="53"/>
-      <c r="C23" s="49" t="str">
+      <c r="C23" s="9" t="str">
         <f>Dashboard!C27</f>
-        <v>simult_se</v>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f>Dashboard!D27</f>
-        <v>-</v>
-      </c>
-      <c r="E23" s="118">
-        <f>M23</f>
-        <v>0.81039768597245498</v>
-      </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="118">
-        <v>0.81039768597245498</v>
-      </c>
-      <c r="N23" s="89"/>
-    </row>
-    <row r="24" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Cost</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="98"/>
+    </row>
+    <row r="24" spans="2:14" ht="17" thickBot="1">
       <c r="B24" s="53"/>
       <c r="C24" s="49" t="str">
         <f>Dashboard!C28</f>
-        <v>simult_wd</v>
+        <v>initial_investment</v>
       </c>
       <c r="D24" s="49" t="str">
         <f>Dashboard!D28</f>
-        <v>-</v>
-      </c>
-      <c r="E24" s="118">
-        <f>M24</f>
-        <v>0.90016524332298198</v>
+        <v>euro</v>
+      </c>
+      <c r="E24" s="125">
+        <f>J24</f>
+        <v>9246.4312546957171</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127">
+        <f>Notes!E88</f>
+        <v>9246.4312546957171</v>
+      </c>
+      <c r="K24" s="152"/>
       <c r="L24" s="49"/>
-      <c r="M24" s="118">
-        <v>0.90016524332298198</v>
-      </c>
-      <c r="N24" s="89"/>
-    </row>
-    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="49"/>
+      <c r="N24" s="100"/>
+    </row>
+    <row r="25" spans="2:14" ht="17" thickBot="1">
       <c r="B25" s="53"/>
       <c r="C25" s="49" t="str">
         <f>Dashboard!C29</f>
-        <v>simult_we</v>
+        <v>ccs_investment</v>
       </c>
       <c r="D25" s="49" t="str">
         <f>Dashboard!D29</f>
-        <v>-</v>
+        <v>euro</v>
       </c>
       <c r="E25" s="118">
         <f>M25</f>
-        <v>1.1440193858509899</v>
+        <v>0</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -4261,105 +4131,125 @@
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="118">
-        <v>1.1440193858509899</v>
+        <v>0</v>
       </c>
       <c r="N25" s="89"/>
     </row>
-    <row r="26" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="17" thickBot="1">
       <c r="B26" s="53"/>
       <c r="C26" s="49" t="str">
         <f>Dashboard!C30</f>
-        <v>peak_load_units_present</v>
+        <v>cost_of_installing</v>
       </c>
       <c r="D26" s="49" t="str">
         <f>Dashboard!D30</f>
-        <v>-</v>
-      </c>
-      <c r="E26" s="118">
-        <f>M26</f>
-        <v>0</v>
+        <v>euro</v>
+      </c>
+      <c r="E26" s="125">
+        <f>J26</f>
+        <v>1500</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="127">
+        <f>Notes!E76</f>
+        <v>1500</v>
+      </c>
+      <c r="K26" s="152"/>
       <c r="L26" s="49"/>
-      <c r="M26" s="118">
+      <c r="M26" s="49"/>
+      <c r="N26" s="100"/>
+    </row>
+    <row r="27" spans="2:14" ht="17" thickBot="1">
+      <c r="B27" s="53"/>
+      <c r="C27" s="49" t="str">
+        <f>Dashboard!C31</f>
+        <v>decommissioning_costs</v>
+      </c>
+      <c r="D27" s="49" t="str">
+        <f>Dashboard!D31</f>
+        <v>euro</v>
+      </c>
+      <c r="E27" s="118">
+        <f>M27</f>
         <v>0</v>
       </c>
-      <c r="N26" s="89"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="53"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="98"/>
-    </row>
-    <row r="28" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="118">
+        <v>0</v>
+      </c>
+      <c r="N27" s="89"/>
+    </row>
+    <row r="28" spans="2:14" ht="17" thickBot="1">
       <c r="B28" s="53"/>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="49" t="str">
         <f>Dashboard!C32</f>
-        <v>Cost</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="98"/>
-    </row>
-    <row r="29" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
+      </c>
+      <c r="D28" s="49" t="str">
+        <f>Dashboard!D32</f>
+        <v>euro/year</v>
+      </c>
+      <c r="E28" s="125">
+        <f>J28</f>
+        <v>100</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127">
+        <f>Notes!E77</f>
+        <v>100</v>
+      </c>
+      <c r="K28" s="152"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="100"/>
+    </row>
+    <row r="29" spans="2:14" ht="17" thickBot="1">
       <c r="B29" s="53"/>
       <c r="C29" s="49" t="str">
         <f>Dashboard!C33</f>
-        <v>initial_investment</v>
+        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
       </c>
       <c r="D29" s="49" t="str">
         <f>Dashboard!D33</f>
-        <v>euro</v>
-      </c>
-      <c r="E29" s="125">
+        <v>euro/FLH</v>
+      </c>
+      <c r="E29" s="128">
         <f>J29</f>
-        <v>9246.4312546957171</v>
+        <v>0</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="127">
-        <f>Notes!E88</f>
-        <v>9246.4312546957171</v>
-      </c>
-      <c r="K29" s="153"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
       <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="100"/>
-    </row>
-    <row r="30" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="118">
+        <v>0</v>
+      </c>
+      <c r="N29" s="101"/>
+    </row>
+    <row r="30" spans="2:14" ht="17" thickBot="1">
       <c r="B30" s="53"/>
       <c r="C30" s="49" t="str">
         <f>Dashboard!C34</f>
-        <v>ccs_investment</v>
+        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
       </c>
       <c r="D30" s="49" t="str">
         <f>Dashboard!D34</f>
-        <v>euro</v>
+        <v>euro/FLH</v>
       </c>
       <c r="E30" s="118">
         <f>M30</f>
@@ -4377,42 +4267,41 @@
       </c>
       <c r="N30" s="89"/>
     </row>
-    <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="17" thickBot="1">
       <c r="B31" s="53"/>
       <c r="C31" s="49" t="str">
         <f>Dashboard!C35</f>
-        <v>cost_of_installing</v>
+        <v>wacc</v>
       </c>
       <c r="D31" s="49" t="str">
         <f>Dashboard!D35</f>
-        <v>euro</v>
-      </c>
-      <c r="E31" s="125">
-        <f>J31</f>
-        <v>1500</v>
+        <v>%</v>
+      </c>
+      <c r="E31" s="118">
+        <f>M31</f>
+        <v>0.04</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="127">
-        <f>Notes!E76</f>
-        <v>1500</v>
-      </c>
-      <c r="K31" s="153"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
       <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="100"/>
-    </row>
-    <row r="32" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="118">
+        <v>0.04</v>
+      </c>
+      <c r="N31" s="89"/>
+    </row>
+    <row r="32" spans="2:14" ht="17" thickBot="1">
       <c r="B32" s="53"/>
       <c r="C32" s="49" t="str">
         <f>Dashboard!C36</f>
-        <v>decommissioning_costs</v>
+        <v>takes_part_in_ets</v>
       </c>
       <c r="D32" s="49" t="str">
         <f>Dashboard!D36</f>
-        <v>euro</v>
+        <v>yes=1, no=0</v>
       </c>
       <c r="E32" s="118">
         <f>M32</f>
@@ -4430,98 +4319,82 @@
       </c>
       <c r="N32" s="89"/>
     </row>
-    <row r="33" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="17" thickBot="1">
       <c r="B33" s="53"/>
       <c r="C33" s="49" t="str">
         <f>Dashboard!C37</f>
-        <v>fixed_operation_and_maintenance_costs_per_year</v>
+        <v>storage.cost_per_mwh</v>
       </c>
       <c r="D33" s="49" t="str">
         <f>Dashboard!D37</f>
-        <v>euro/year</v>
-      </c>
-      <c r="E33" s="125">
-        <f>J33</f>
-        <v>100</v>
+        <v>euro/MWh</v>
+      </c>
+      <c r="E33" s="154">
+        <f>L33</f>
+        <v>50713.749060856491</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127">
-        <f>Notes!E77</f>
-        <v>100</v>
-      </c>
-      <c r="K33" s="153"/>
-      <c r="L33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="154">
+        <f>Notes!E126</f>
+        <v>60055.755466803734</v>
+      </c>
+      <c r="L33" s="154">
+        <f>Notes!E96</f>
+        <v>50713.749060856491</v>
+      </c>
       <c r="M33" s="49"/>
-      <c r="N33" s="100"/>
-    </row>
-    <row r="34" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="98"/>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="53"/>
-      <c r="C34" s="49" t="str">
-        <f>Dashboard!C38</f>
-        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
-      </c>
-      <c r="D34" s="49" t="str">
-        <f>Dashboard!D38</f>
-        <v>euro/FLH</v>
-      </c>
-      <c r="E34" s="128">
-        <f>J34</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="118">
-        <v>0</v>
-      </c>
-      <c r="N34" s="101"/>
-    </row>
-    <row r="35" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="98"/>
+    </row>
+    <row r="35" spans="2:14" ht="17" thickBot="1">
       <c r="B35" s="53"/>
-      <c r="C35" s="49" t="str">
+      <c r="C35" s="9" t="str">
         <f>Dashboard!C39</f>
-        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
-      </c>
-      <c r="D35" s="49" t="str">
-        <f>Dashboard!D39</f>
-        <v>euro/FLH</v>
-      </c>
-      <c r="E35" s="118">
-        <f>M35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="118">
-        <v>0</v>
-      </c>
-      <c r="N35" s="89"/>
-    </row>
-    <row r="36" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Other</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="98"/>
+    </row>
+    <row r="36" spans="2:14" ht="17" thickBot="1">
       <c r="B36" s="53"/>
       <c r="C36" s="49" t="str">
         <f>Dashboard!C40</f>
-        <v>wacc</v>
+        <v>land_use_per_unit</v>
       </c>
       <c r="D36" s="49" t="str">
         <f>Dashboard!D40</f>
-        <v>%</v>
+        <v>km2</v>
       </c>
       <c r="E36" s="118">
         <f>M36</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="49"/>
@@ -4531,19 +4404,19 @@
       <c r="K36" s="49"/>
       <c r="L36" s="49"/>
       <c r="M36" s="118">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N36" s="89"/>
     </row>
-    <row r="37" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="17" thickBot="1">
       <c r="B37" s="53"/>
       <c r="C37" s="49" t="str">
         <f>Dashboard!C41</f>
-        <v>takes_part_in_ets</v>
+        <v>construction_time</v>
       </c>
       <c r="D37" s="49" t="str">
         <f>Dashboard!D41</f>
-        <v>yes=1, no=0</v>
+        <v>years</v>
       </c>
       <c r="E37" s="118">
         <f>M37</f>
@@ -4561,81 +4434,97 @@
       </c>
       <c r="N37" s="89"/>
     </row>
-    <row r="38" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="17" thickBot="1">
       <c r="B38" s="53"/>
       <c r="C38" s="49" t="str">
         <f>Dashboard!C42</f>
-        <v>storage.cost_per_mwh</v>
+        <v>technical_lifetime</v>
       </c>
       <c r="D38" s="49" t="str">
         <f>Dashboard!D42</f>
-        <v>euro/MWh</v>
-      </c>
-      <c r="E38" s="155">
-        <f>L38</f>
-        <v>50713.749060856491</v>
+        <v>years</v>
+      </c>
+      <c r="E38" s="129">
+        <f>J38</f>
+        <v>15</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="155">
-        <f>Notes!E126</f>
-        <v>60055.755466803734</v>
-      </c>
-      <c r="L38" s="155">
-        <f>Notes!E96</f>
-        <v>50713.749060856491</v>
-      </c>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="125">
+        <f>Notes!E74</f>
+        <v>15</v>
+      </c>
+      <c r="K38" s="153"/>
+      <c r="L38" s="49"/>
       <c r="M38" s="49"/>
-      <c r="N38" s="98"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="102"/>
+    </row>
+    <row r="39" spans="2:14" ht="17" thickBot="1">
       <c r="B39" s="53"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="98"/>
-    </row>
-    <row r="40" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="49" t="str">
+        <f>Dashboard!C43</f>
+        <v>free_co2_factor</v>
+      </c>
+      <c r="D39" s="49" t="str">
+        <f>Dashboard!D43</f>
+        <v>-</v>
+      </c>
+      <c r="E39" s="118">
+        <f t="shared" ref="E39:E44" si="1">M39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="118">
+        <v>0</v>
+      </c>
+      <c r="N39" s="89"/>
+    </row>
+    <row r="40" spans="2:14" ht="17" thickBot="1">
       <c r="B40" s="53"/>
-      <c r="C40" s="9" t="str">
+      <c r="C40" s="49" t="str">
         <f>Dashboard!C44</f>
-        <v>Other</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="98"/>
-    </row>
-    <row r="41" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>hours_prep_nl</v>
+      </c>
+      <c r="D40" s="49" t="str">
+        <f>Dashboard!D44</f>
+        <v>-</v>
+      </c>
+      <c r="E40" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="118">
+        <v>0</v>
+      </c>
+      <c r="N40" s="89"/>
+    </row>
+    <row r="41" spans="2:14" ht="17" thickBot="1">
       <c r="B41" s="53"/>
       <c r="C41" s="49" t="str">
         <f>Dashboard!C45</f>
-        <v>land_use_per_unit</v>
+        <v>hours_prod_nl</v>
       </c>
       <c r="D41" s="49" t="str">
         <f>Dashboard!D45</f>
-        <v>km2</v>
+        <v>-</v>
       </c>
       <c r="E41" s="118">
-        <f>M41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41" s="49"/>
@@ -4650,19 +4539,19 @@
       </c>
       <c r="N41" s="89"/>
     </row>
-    <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="17" thickBot="1">
       <c r="B42" s="53"/>
       <c r="C42" s="49" t="str">
         <f>Dashboard!C46</f>
-        <v>construction_time</v>
+        <v>hours_place_nl</v>
       </c>
       <c r="D42" s="49" t="str">
         <f>Dashboard!D46</f>
-        <v>years</v>
+        <v>-</v>
       </c>
       <c r="E42" s="118">
-        <f>M42</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
@@ -4672,50 +4561,49 @@
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N42" s="89"/>
     </row>
-    <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="17" thickBot="1">
       <c r="B43" s="53"/>
       <c r="C43" s="49" t="str">
         <f>Dashboard!C47</f>
-        <v>technical_lifetime</v>
+        <v>hours_maint_nl</v>
       </c>
       <c r="D43" s="49" t="str">
         <f>Dashboard!D47</f>
-        <v>years</v>
-      </c>
-      <c r="E43" s="129">
-        <f>J43</f>
-        <v>15</v>
+        <v>-</v>
+      </c>
+      <c r="E43" s="118">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="125">
-        <f>Notes!E74</f>
-        <v>15</v>
-      </c>
-      <c r="K43" s="154"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="102"/>
-    </row>
-    <row r="44" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="118">
+        <v>1.5</v>
+      </c>
+      <c r="N43" s="89"/>
+    </row>
+    <row r="44" spans="2:14" ht="17" thickBot="1">
       <c r="B44" s="53"/>
       <c r="C44" s="49" t="str">
         <f>Dashboard!C48</f>
-        <v>free_co2_factor</v>
+        <v>hours_remov_nl</v>
       </c>
       <c r="D44" s="49" t="str">
         <f>Dashboard!D48</f>
         <v>-</v>
       </c>
       <c r="E44" s="118">
-        <f t="shared" ref="E44:E49" si="1">M44</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
@@ -4725,141 +4613,86 @@
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
       <c r="M44" s="118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N44" s="89"/>
     </row>
-    <row r="45" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14">
       <c r="B45" s="53"/>
-      <c r="C45" s="49" t="str">
-        <f>Dashboard!C49</f>
-        <v>hours_prep_nl</v>
-      </c>
-      <c r="D45" s="49" t="str">
-        <f>Dashboard!D49</f>
-        <v>-</v>
-      </c>
-      <c r="E45" s="118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="118">
-        <v>0</v>
-      </c>
-      <c r="N45" s="89"/>
-    </row>
-    <row r="46" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="98"/>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" s="53"/>
-      <c r="C46" s="49" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="D46" s="49" t="str">
-        <f>Dashboard!D50</f>
-        <v>-</v>
-      </c>
-      <c r="E46" s="118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="118">
-        <v>0</v>
-      </c>
-      <c r="N46" s="89"/>
-    </row>
-    <row r="47" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="98"/>
+    </row>
+    <row r="47" spans="2:14">
       <c r="B47" s="53"/>
-      <c r="C47" s="49" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="D47" s="49" t="str">
-        <f>Dashboard!D51</f>
-        <v>-</v>
-      </c>
-      <c r="E47" s="118">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="118">
-        <v>7</v>
-      </c>
-      <c r="N47" s="89"/>
-    </row>
-    <row r="48" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="98"/>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" s="53"/>
-      <c r="C48" s="49" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="D48" s="49" t="str">
-        <f>Dashboard!D52</f>
-        <v>-</v>
-      </c>
-      <c r="E48" s="118">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="118">
-        <v>1.5</v>
-      </c>
-      <c r="N48" s="89"/>
-    </row>
-    <row r="49" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="98"/>
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" s="53"/>
-      <c r="C49" s="49" t="str">
-        <f>Dashboard!C53</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D49" s="49" t="str">
-        <f>Dashboard!D53</f>
-        <v>-</v>
-      </c>
-      <c r="E49" s="118">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="118">
-        <v>7</v>
-      </c>
-      <c r="N49" s="89"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="98"/>
+    </row>
+    <row r="50" spans="2:14">
       <c r="B50" s="53"/>
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
@@ -4874,7 +4707,7 @@
       <c r="M50" s="57"/>
       <c r="N50" s="98"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51" s="53"/>
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
@@ -4889,7 +4722,7 @@
       <c r="M51" s="57"/>
       <c r="N51" s="98"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" s="53"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57"/>
@@ -4904,7 +4737,7 @@
       <c r="M52" s="57"/>
       <c r="N52" s="98"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" s="53"/>
       <c r="C53" s="57"/>
       <c r="D53" s="57"/>
@@ -4919,7 +4752,7 @@
       <c r="M53" s="57"/>
       <c r="N53" s="98"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" s="53"/>
       <c r="C54" s="57"/>
       <c r="D54" s="57"/>
@@ -4934,7 +4767,7 @@
       <c r="M54" s="57"/>
       <c r="N54" s="98"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55" s="53"/>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
@@ -4949,7 +4782,7 @@
       <c r="M55" s="57"/>
       <c r="N55" s="98"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56" s="53"/>
       <c r="C56" s="57"/>
       <c r="D56" s="57"/>
@@ -4964,7 +4797,7 @@
       <c r="M56" s="57"/>
       <c r="N56" s="98"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57" s="53"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
@@ -4979,7 +4812,7 @@
       <c r="M57" s="57"/>
       <c r="N57" s="98"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58" s="53"/>
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
@@ -4994,7 +4827,7 @@
       <c r="M58" s="57"/>
       <c r="N58" s="98"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59" s="53"/>
       <c r="C59" s="57"/>
       <c r="D59" s="57"/>
@@ -5009,7 +4842,7 @@
       <c r="M59" s="57"/>
       <c r="N59" s="98"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60" s="53"/>
       <c r="C60" s="57"/>
       <c r="D60" s="57"/>
@@ -5024,7 +4857,7 @@
       <c r="M60" s="57"/>
       <c r="N60" s="98"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61" s="53"/>
       <c r="C61" s="57"/>
       <c r="D61" s="57"/>
@@ -5039,7 +4872,7 @@
       <c r="M61" s="57"/>
       <c r="N61" s="98"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62" s="53"/>
       <c r="C62" s="57"/>
       <c r="D62" s="57"/>
@@ -5054,7 +4887,7 @@
       <c r="M62" s="57"/>
       <c r="N62" s="98"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63" s="53"/>
       <c r="C63" s="57"/>
       <c r="D63" s="57"/>
@@ -5069,7 +4902,7 @@
       <c r="M63" s="57"/>
       <c r="N63" s="98"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64" s="53"/>
       <c r="C64" s="57"/>
       <c r="D64" s="57"/>
@@ -5084,7 +4917,7 @@
       <c r="M64" s="57"/>
       <c r="N64" s="98"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65" s="53"/>
       <c r="C65" s="57"/>
       <c r="D65" s="57"/>
@@ -5099,7 +4932,7 @@
       <c r="M65" s="57"/>
       <c r="N65" s="98"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66" s="53"/>
       <c r="C66" s="57"/>
       <c r="D66" s="57"/>
@@ -5114,7 +4947,7 @@
       <c r="M66" s="57"/>
       <c r="N66" s="98"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67" s="53"/>
       <c r="C67" s="57"/>
       <c r="D67" s="57"/>
@@ -5129,7 +4962,7 @@
       <c r="M67" s="57"/>
       <c r="N67" s="98"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68" s="53"/>
       <c r="C68" s="57"/>
       <c r="D68" s="57"/>
@@ -5144,7 +4977,7 @@
       <c r="M68" s="57"/>
       <c r="N68" s="98"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69" s="53"/>
       <c r="C69" s="57"/>
       <c r="D69" s="57"/>
@@ -5159,7 +4992,7 @@
       <c r="M69" s="57"/>
       <c r="N69" s="98"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70" s="53"/>
       <c r="C70" s="57"/>
       <c r="D70" s="57"/>
@@ -5174,7 +5007,7 @@
       <c r="M70" s="57"/>
       <c r="N70" s="98"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71" s="53"/>
       <c r="C71" s="57"/>
       <c r="D71" s="57"/>
@@ -5189,7 +5022,7 @@
       <c r="M71" s="57"/>
       <c r="N71" s="98"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72" s="53"/>
       <c r="C72" s="57"/>
       <c r="D72" s="57"/>
@@ -5204,7 +5037,7 @@
       <c r="M72" s="57"/>
       <c r="N72" s="98"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73" s="53"/>
       <c r="C73" s="57"/>
       <c r="D73" s="57"/>
@@ -5219,7 +5052,7 @@
       <c r="M73" s="57"/>
       <c r="N73" s="98"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74" s="53"/>
       <c r="C74" s="57"/>
       <c r="D74" s="57"/>
@@ -5234,7 +5067,7 @@
       <c r="M74" s="57"/>
       <c r="N74" s="98"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75" s="53"/>
       <c r="C75" s="57"/>
       <c r="D75" s="57"/>
@@ -5249,7 +5082,7 @@
       <c r="M75" s="57"/>
       <c r="N75" s="98"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76" s="53"/>
       <c r="C76" s="57"/>
       <c r="D76" s="57"/>
@@ -5264,95 +5097,20 @@
       <c r="M76" s="57"/>
       <c r="N76" s="98"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="53"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="98"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="53"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="98"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="53"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="98"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="53"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="98"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="53"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="98"/>
-    </row>
-    <row r="82" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="103"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="104"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="105"/>
+    <row r="77" spans="2:14" ht="17" thickBot="1">
+      <c r="B77" s="103"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="104"/>
+      <c r="N77" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5361,8 +5119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K56"/>
@@ -5371,22 +5129,22 @@
       <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="36" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="36" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="37" customWidth="1"/>
     <col min="11" max="11" width="66" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="36"/>
+    <col min="12" max="16384" width="33.1640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -5398,7 +5156,7 @@
       <c r="J2" s="40"/>
       <c r="K2" s="106"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
         <v>20</v>
@@ -5412,7 +5170,7 @@
       <c r="J3" s="43"/>
       <c r="K3" s="107"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="41"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -5424,7 +5182,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="107"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="46"/>
       <c r="C5" s="47" t="s">
         <v>27</v>
@@ -5440,777 +5198,777 @@
         <v>28</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K5" s="108" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="41"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="41"/>
-      <c r="C7" s="134" t="str">
+      <c r="C7" s="133" t="str">
         <f>Dashboard!C13</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="133">
+      <c r="D7" s="132"/>
+      <c r="E7" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="132">
         <v>2015</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H7" s="132">
         <v>2015</v>
       </c>
-      <c r="I7" s="136">
+      <c r="I7" s="135">
         <v>42948</v>
       </c>
-      <c r="J7" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="135"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="134"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="41"/>
-      <c r="C8" s="134" t="str">
+      <c r="C8" s="133" t="str">
         <f>Dashboard!C14</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="134"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="41"/>
-      <c r="C9" s="134" t="str">
+      <c r="C9" s="133" t="str">
         <f>Dashboard!C15</f>
         <v>fever.cop_per_degree</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="41"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="133"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="41"/>
-      <c r="C11" s="134" t="str">
+      <c r="C11" s="133" t="str">
         <f>Dashboard!C16</f>
         <v>storage.volume</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="133">
+      <c r="D11" s="132"/>
+      <c r="E11" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="132">
         <v>2010</v>
       </c>
-      <c r="H11" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="136">
+      <c r="H11" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="135">
         <v>42948</v>
       </c>
-      <c r="J11" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="135"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="134"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="41"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="133"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="41"/>
-      <c r="C13" s="134" t="str">
-        <f>Dashboard!C33</f>
+      <c r="C13" s="133" t="str">
+        <f>Dashboard!C28</f>
         <v>initial_investment</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="136">
+      <c r="D13" s="132"/>
+      <c r="E13" s="132" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="135">
         <v>42948</v>
       </c>
-      <c r="J13" s="134" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="135" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="133" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="134" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="41"/>
-      <c r="C14" s="134" t="str">
-        <f>Dashboard!C35</f>
+      <c r="C14" s="133" t="str">
+        <f>Dashboard!C30</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="135"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="41"/>
-      <c r="C15" s="138" t="str">
+      <c r="C15" s="137" t="str">
         <f>Dashboard!C25</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="135"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="134"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="41"/>
-      <c r="C16" s="138" t="str">
-        <f>Dashboard!C37</f>
+      <c r="C16" s="137" t="str">
+        <f>Dashboard!C32</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="41"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="133"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="41"/>
-      <c r="C18" s="138" t="str">
-        <f>'Research data'!C38</f>
+      <c r="C18" s="137" t="str">
+        <f>'Research data'!C33</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="136">
+      <c r="D18" s="132"/>
+      <c r="E18" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="135">
         <v>42979</v>
       </c>
-      <c r="J18" s="134"/>
-      <c r="K18" s="135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="133"/>
+      <c r="K18" s="134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="41"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="135"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="133"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="41"/>
-      <c r="C20" s="138" t="str">
-        <f>'Research data'!C38</f>
+      <c r="C20" s="137" t="str">
+        <f>'Research data'!C33</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="136">
+      <c r="D20" s="132"/>
+      <c r="E20" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="135">
         <v>42979</v>
       </c>
-      <c r="J20" s="134"/>
+      <c r="J20" s="133"/>
       <c r="K20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="41"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="133"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="41"/>
-      <c r="C22" s="138" t="str">
+      <c r="C22" s="137" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D22" s="137"/>
+      <c r="E22" s="132" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="41"/>
-      <c r="C23" s="138" t="str">
+      <c r="C23" s="137" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="137"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="134"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="41"/>
-      <c r="C24" s="138" t="str">
+      <c r="C24" s="137" t="str">
         <f>Dashboard!C12</f>
         <v>output.useable_heat</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="137"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="134"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="41"/>
-      <c r="C25" s="134" t="str">
+      <c r="C25" s="133" t="str">
         <f>Dashboard!C17</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D25" s="138"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="137"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="41"/>
-      <c r="C26" s="138" t="str">
+      <c r="C26" s="137" t="str">
         <f>Dashboard!C18</f>
         <v>availability</v>
       </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="135"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="134"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="41"/>
-      <c r="C27" s="138" t="str">
+      <c r="C27" s="137" t="str">
         <f>Dashboard!C19</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D27" s="137"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="134"/>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="41"/>
-      <c r="C28" s="138" t="str">
+      <c r="C28" s="137" t="str">
         <f>Dashboard!C20</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="137"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="41"/>
-      <c r="C29" s="138" t="str">
+      <c r="C29" s="137" t="str">
         <f>Dashboard!C21</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="137"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="41"/>
-      <c r="C30" s="138" t="str">
+      <c r="C30" s="137" t="str">
         <f>Dashboard!C22</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="137"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="41"/>
-      <c r="C31" s="138" t="str">
+      <c r="C31" s="137" t="str">
         <f>Dashboard!C23</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D31" s="138"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D31" s="137"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="41"/>
-      <c r="C32" s="138" t="str">
+      <c r="C32" s="137" t="str">
         <f>Dashboard!C24</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D32" s="138"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="137"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="41"/>
-      <c r="C33" s="138" t="str">
-        <f>Dashboard!C26</f>
-        <v>simult_sd</v>
-      </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="137" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="137"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="41"/>
-      <c r="C34" s="138" t="str">
-        <f>Dashboard!C27</f>
-        <v>simult_se</v>
-      </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="135"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="137" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="137"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="134"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="41"/>
-      <c r="C35" s="138" t="str">
-        <f>Dashboard!C28</f>
-        <v>simult_wd</v>
-      </c>
-      <c r="D35" s="138"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="135"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="137" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="137"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="134"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="41"/>
-      <c r="C36" s="138" t="str">
+      <c r="C36" s="137" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="137"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="134"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="41"/>
+      <c r="C37" s="137" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="137"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="134"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="41"/>
+      <c r="C38" s="137" t="str">
         <f>Dashboard!C29</f>
-        <v>simult_we</v>
-      </c>
-      <c r="D36" s="138"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="135"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="41"/>
-      <c r="C37" s="138" t="str">
-        <f>Dashboard!C30</f>
-        <v>peak_load_units_present</v>
-      </c>
-      <c r="D37" s="138"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="135"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="41"/>
-      <c r="C38" s="138" t="str">
+        <v>ccs_investment</v>
+      </c>
+      <c r="D38" s="137"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="134"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="41"/>
+      <c r="C39" s="137" t="str">
+        <f>Dashboard!C31</f>
+        <v>decommissioning_costs</v>
+      </c>
+      <c r="D39" s="137"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="134"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="41"/>
+      <c r="C40" s="137" t="str">
+        <f>Dashboard!C33</f>
+        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
+      </c>
+      <c r="D40" s="137"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="134"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="41"/>
+      <c r="C41" s="137" t="str">
         <f>Dashboard!C34</f>
-        <v>ccs_investment</v>
-      </c>
-      <c r="D38" s="138"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="135"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="41"/>
-      <c r="C39" s="138" t="str">
+        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
+      </c>
+      <c r="D41" s="137"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="134"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="41"/>
+      <c r="C42" s="137" t="str">
+        <f>Dashboard!C35</f>
+        <v>wacc</v>
+      </c>
+      <c r="D42" s="137"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="134"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="41"/>
+      <c r="C43" s="137" t="str">
         <f>Dashboard!C36</f>
-        <v>decommissioning_costs</v>
-      </c>
-      <c r="D39" s="138"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="135"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="41"/>
-      <c r="C40" s="138" t="str">
-        <f>Dashboard!C38</f>
-        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
-      </c>
-      <c r="D40" s="138"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="135"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="41"/>
-      <c r="C41" s="138" t="str">
-        <f>Dashboard!C39</f>
-        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
-      </c>
-      <c r="D41" s="138"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="135"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="41"/>
-      <c r="C42" s="138" t="str">
+        <v>takes_part_in_ets</v>
+      </c>
+      <c r="D43" s="137"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="134"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="41"/>
+      <c r="C44" s="137" t="str">
         <f>Dashboard!C40</f>
-        <v>wacc</v>
-      </c>
-      <c r="D42" s="138"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="135"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="41"/>
-      <c r="C43" s="138" t="str">
+        <v>land_use_per_unit</v>
+      </c>
+      <c r="D44" s="137"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="134"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="41"/>
+      <c r="C45" s="137" t="str">
         <f>Dashboard!C41</f>
-        <v>takes_part_in_ets</v>
-      </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="135"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="41"/>
-      <c r="C44" s="138" t="str">
+        <v>construction_time</v>
+      </c>
+      <c r="D45" s="137"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="134"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="41"/>
+      <c r="C46" s="137" t="str">
+        <f>Dashboard!C43</f>
+        <v>free_co2_factor</v>
+      </c>
+      <c r="D46" s="137"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="134"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="41"/>
+      <c r="C47" s="137" t="str">
+        <f>Dashboard!C44</f>
+        <v>hours_prep_nl</v>
+      </c>
+      <c r="D47" s="137"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="134"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="41"/>
+      <c r="C48" s="137" t="str">
         <f>Dashboard!C45</f>
-        <v>land_use_per_unit</v>
-      </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="135"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="41"/>
-      <c r="C45" s="138" t="str">
+        <v>hours_prod_nl</v>
+      </c>
+      <c r="D48" s="137"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="134"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="41"/>
+      <c r="C49" s="137" t="str">
         <f>Dashboard!C46</f>
-        <v>construction_time</v>
-      </c>
-      <c r="D45" s="138"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="135"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-      <c r="C46" s="138" t="str">
+        <v>hours_place_nl</v>
+      </c>
+      <c r="D49" s="137"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="134"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="41"/>
+      <c r="C50" s="137" t="str">
+        <f>Dashboard!C47</f>
+        <v>hours_maint_nl</v>
+      </c>
+      <c r="D50" s="137"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="134"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="41"/>
+      <c r="C51" s="137" t="str">
         <f>Dashboard!C48</f>
-        <v>free_co2_factor</v>
-      </c>
-      <c r="D46" s="138"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="135"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="41"/>
-      <c r="C47" s="138" t="str">
-        <f>Dashboard!C49</f>
-        <v>hours_prep_nl</v>
-      </c>
-      <c r="D47" s="138"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="135"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
-      <c r="C48" s="138" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="D48" s="138"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="135"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-      <c r="C49" s="138" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="D49" s="138"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="135"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
-      <c r="C50" s="138" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="D50" s="138"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="135"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
-      <c r="C51" s="138" t="str">
-        <f>Dashboard!C53</f>
         <v>hours_remov_nl</v>
       </c>
-      <c r="D51" s="138"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="135"/>
-    </row>
-    <row r="52" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="137"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="134"/>
+    </row>
+    <row r="52" spans="2:11" ht="17" thickBot="1">
       <c r="B52" s="110"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
-      <c r="K52" s="142"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D52" s="138"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="141"/>
+    </row>
+    <row r="53" spans="2:11">
       <c r="C53" s="91"/>
       <c r="D53" s="91"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11">
       <c r="C54" s="91"/>
       <c r="D54" s="91"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11">
       <c r="C55" s="91"/>
       <c r="D55" s="91"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11">
       <c r="C56" s="91"/>
       <c r="D56" s="91"/>
     </row>
@@ -6221,29 +5979,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:K214"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="83" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="83" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="83" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="83"/>
-    <col min="10" max="10" width="62.42578125" style="83" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="83"/>
+    <col min="1" max="1" width="3.5" style="83" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="83" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="83" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="83"/>
+    <col min="10" max="10" width="62.5" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="17" thickBot="1"/>
+    <row r="3" spans="2:10">
       <c r="B3" s="84"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6254,13 +6012,13 @@
       <c r="I3" s="11"/>
       <c r="J3" s="85"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="73"/>
       <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -6269,7 +6027,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="87"/>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
@@ -6280,7 +6038,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="89"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="87"/>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -6291,14 +6049,14 @@
       <c r="I6" s="88"/>
       <c r="J6" s="89"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="87"/>
       <c r="C7" s="9" t="str">
         <f>Sources!E7</f>
         <v>Ecofys</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E7" s="88">
         <v>66</v>
@@ -6309,7 +6067,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="87"/>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
@@ -6320,7 +6078,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -6331,7 +6089,7 @@
       <c r="I9" s="88"/>
       <c r="J9" s="89"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="87"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -6342,7 +6100,7 @@
       <c r="I10" s="88"/>
       <c r="J10" s="89"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -6353,7 +6111,7 @@
       <c r="I11" s="88"/>
       <c r="J11" s="89"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="87"/>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
@@ -6364,11 +6122,11 @@
       <c r="I12" s="88"/>
       <c r="J12" s="89"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="88"/>
@@ -6377,7 +6135,7 @@
       <c r="I13" s="88"/>
       <c r="J13" s="89"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="94" t="str">
@@ -6388,14 +6146,14 @@
         <v>1.86</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
       <c r="I14" s="88"/>
       <c r="J14" s="89"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="87"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88"/>
@@ -6406,7 +6164,7 @@
       <c r="I15" s="88"/>
       <c r="J15" s="89"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="94" t="str">
@@ -6417,14 +6175,14 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
       <c r="J16" s="89"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="87"/>
       <c r="C17" s="90"/>
       <c r="D17" s="88"/>
@@ -6435,7 +6193,7 @@
       <c r="I17" s="88"/>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -6446,7 +6204,7 @@
       <c r="I18" s="88"/>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
@@ -6457,7 +6215,7 @@
       <c r="I19" s="88"/>
       <c r="J19" s="89"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
@@ -6468,7 +6226,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
@@ -6479,28 +6237,28 @@
       <c r="I21" s="88"/>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="87"/>
       <c r="C22" s="9" t="str">
         <f>Sources!E11</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E22" s="88">
         <f>MROUND(E37/1000,0.001)</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
       <c r="J22" s="89"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="87"/>
       <c r="C23" s="9"/>
       <c r="D23" s="45"/>
@@ -6511,7 +6269,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="89"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="87"/>
       <c r="C24" s="9"/>
       <c r="D24" s="45"/>
@@ -6522,7 +6280,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="89"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="87"/>
       <c r="C25" s="9"/>
       <c r="D25" s="45"/>
@@ -6533,7 +6291,7 @@
       <c r="I25" s="88"/>
       <c r="J25" s="89"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="87"/>
       <c r="C26" s="9"/>
       <c r="D26" s="45"/>
@@ -6544,72 +6302,72 @@
       <c r="I26" s="88"/>
       <c r="J26" s="89"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="87"/>
       <c r="C27" s="9"/>
       <c r="D27" s="45"/>
       <c r="E27" s="88"/>
       <c r="F27" s="109" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
       <c r="J27" s="89"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="B28" s="87"/>
       <c r="C28" s="9"/>
       <c r="D28" s="45" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E28" s="88">
         <v>80</v>
       </c>
       <c r="F28" s="109" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88"/>
       <c r="J28" s="89"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="87"/>
       <c r="C29" s="9"/>
       <c r="D29" s="45" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E29" s="88">
         <v>115</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
       <c r="I29" s="88"/>
       <c r="J29" s="89"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="87"/>
       <c r="C30" s="9"/>
       <c r="D30" s="45" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E30" s="88">
         <f>MROUND(AVERAGE(E28:E29),20)</f>
         <v>100</v>
       </c>
       <c r="F30" s="111" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
       <c r="I30" s="88"/>
       <c r="J30" s="89"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31" s="87"/>
       <c r="C31" s="9"/>
       <c r="D31" s="45"/>
@@ -6620,94 +6378,94 @@
       <c r="I31" s="88"/>
       <c r="J31" s="89"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="D32" s="109" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E32" s="109">
         <v>4.18</v>
       </c>
       <c r="F32" s="109" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
       <c r="I32" s="88"/>
       <c r="J32" s="89"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="109" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E33" s="109">
         <v>10</v>
       </c>
       <c r="F33" s="109" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G33" s="88"/>
       <c r="H33" s="88"/>
       <c r="I33" s="88"/>
       <c r="J33" s="89"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="109" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E34" s="109">
         <v>50</v>
       </c>
       <c r="F34" s="109" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G34" s="88"/>
       <c r="H34" s="88"/>
       <c r="I34" s="88"/>
       <c r="J34" s="89"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="109" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E35" s="109">
         <f>E30</f>
         <v>100</v>
       </c>
       <c r="F35" s="109" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G35" s="88"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
       <c r="J35" s="89"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="87"/>
       <c r="C36" s="88"/>
       <c r="D36" s="109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E36" s="112">
         <f>E35*(E34-E33)*E32</f>
         <v>16720</v>
       </c>
       <c r="F36" s="109" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G36" s="88"/>
       <c r="H36" s="88"/>
       <c r="I36" s="88"/>
       <c r="J36" s="89"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="87"/>
       <c r="C37" s="88"/>
       <c r="D37" s="113" t="str">
@@ -6719,14 +6477,14 @@
         <v>4.6444444444444448</v>
       </c>
       <c r="F37" s="109" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G37" s="88"/>
       <c r="H37" s="88"/>
       <c r="I37" s="88"/>
       <c r="J37" s="89"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10">
       <c r="B38" s="87"/>
       <c r="C38" s="9"/>
       <c r="D38" s="45"/>
@@ -6737,7 +6495,7 @@
       <c r="I38" s="88"/>
       <c r="J38" s="89"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10">
       <c r="B39" s="87"/>
       <c r="C39" s="9"/>
       <c r="D39" s="45"/>
@@ -6748,7 +6506,7 @@
       <c r="I39" s="88"/>
       <c r="J39" s="89"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10">
       <c r="B40" s="87"/>
       <c r="C40" s="9"/>
       <c r="D40" s="45"/>
@@ -6759,7 +6517,7 @@
       <c r="I40" s="88"/>
       <c r="J40" s="89"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="87"/>
       <c r="C41" s="9"/>
       <c r="D41" s="45"/>
@@ -6770,7 +6528,7 @@
       <c r="I41" s="88"/>
       <c r="J41" s="89"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="87"/>
       <c r="C42" s="9"/>
       <c r="D42" s="45"/>
@@ -6781,7 +6539,7 @@
       <c r="I42" s="88"/>
       <c r="J42" s="89"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10">
       <c r="B43" s="87"/>
       <c r="C43" s="9"/>
       <c r="D43" s="45"/>
@@ -6792,7 +6550,7 @@
       <c r="I43" s="88"/>
       <c r="J43" s="89"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10">
       <c r="B44" s="87"/>
       <c r="C44" s="9"/>
       <c r="D44" s="45"/>
@@ -6803,7 +6561,7 @@
       <c r="I44" s="88"/>
       <c r="J44" s="89"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="87"/>
       <c r="C45" s="9"/>
       <c r="D45" s="45"/>
@@ -6814,7 +6572,7 @@
       <c r="I45" s="88"/>
       <c r="J45" s="89"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" s="87"/>
       <c r="C46" s="9"/>
       <c r="D46" s="45"/>
@@ -6825,7 +6583,7 @@
       <c r="I46" s="88"/>
       <c r="J46" s="89"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="87"/>
       <c r="C47" s="9"/>
       <c r="D47" s="45"/>
@@ -6836,7 +6594,7 @@
       <c r="I47" s="88"/>
       <c r="J47" s="89"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="87"/>
       <c r="C48" s="9"/>
       <c r="D48" s="45"/>
@@ -6847,7 +6605,7 @@
       <c r="I48" s="88"/>
       <c r="J48" s="89"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10">
       <c r="B49" s="87"/>
       <c r="C49" s="9"/>
       <c r="D49" s="45"/>
@@ -6858,7 +6616,7 @@
       <c r="I49" s="88"/>
       <c r="J49" s="89"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10">
       <c r="B50" s="87"/>
       <c r="C50" s="9"/>
       <c r="D50" s="45"/>
@@ -6869,7 +6627,7 @@
       <c r="I50" s="88"/>
       <c r="J50" s="89"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10">
       <c r="B51" s="87"/>
       <c r="C51" s="9"/>
       <c r="D51" s="45"/>
@@ -6880,7 +6638,7 @@
       <c r="I51" s="88"/>
       <c r="J51" s="89"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10">
       <c r="B52" s="87"/>
       <c r="C52" s="9"/>
       <c r="D52" s="45"/>
@@ -6891,7 +6649,7 @@
       <c r="I52" s="88"/>
       <c r="J52" s="89"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10">
       <c r="B53" s="87"/>
       <c r="C53" s="88"/>
       <c r="D53" s="88"/>
@@ -6902,7 +6660,7 @@
       <c r="I53" s="88"/>
       <c r="J53" s="89"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="87"/>
       <c r="C54" s="88"/>
       <c r="D54" s="88"/>
@@ -6913,7 +6671,7 @@
       <c r="I54" s="88"/>
       <c r="J54" s="89"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10">
       <c r="B55" s="87"/>
       <c r="C55" s="88"/>
       <c r="D55" s="88"/>
@@ -6924,7 +6682,7 @@
       <c r="I55" s="88"/>
       <c r="J55" s="89"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10">
       <c r="B56" s="87"/>
       <c r="C56" s="88"/>
       <c r="D56" s="88"/>
@@ -6935,7 +6693,7 @@
       <c r="I56" s="88"/>
       <c r="J56" s="89"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10">
       <c r="B57" s="87"/>
       <c r="C57" s="88"/>
       <c r="D57" s="88"/>
@@ -6946,7 +6704,7 @@
       <c r="I57" s="88"/>
       <c r="J57" s="89"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10">
       <c r="B58" s="87"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
@@ -6957,7 +6715,7 @@
       <c r="I58" s="88"/>
       <c r="J58" s="89"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10">
       <c r="B59" s="87"/>
       <c r="C59" s="88"/>
       <c r="D59" s="88"/>
@@ -6968,7 +6726,7 @@
       <c r="I59" s="88"/>
       <c r="J59" s="89"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10">
       <c r="B60" s="87"/>
       <c r="C60" s="88"/>
       <c r="D60" s="88"/>
@@ -6979,7 +6737,7 @@
       <c r="I60" s="88"/>
       <c r="J60" s="89"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10">
       <c r="B61" s="87"/>
       <c r="C61" s="88"/>
       <c r="D61" s="88"/>
@@ -6990,7 +6748,7 @@
       <c r="I61" s="88"/>
       <c r="J61" s="89"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10">
       <c r="B62" s="87"/>
       <c r="C62" s="88"/>
       <c r="D62" s="88"/>
@@ -7001,7 +6759,7 @@
       <c r="I62" s="88"/>
       <c r="J62" s="89"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="B63" s="87"/>
       <c r="C63" s="88"/>
       <c r="D63" s="88"/>
@@ -7012,7 +6770,7 @@
       <c r="I63" s="88"/>
       <c r="J63" s="89"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10">
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
       <c r="D64" s="88"/>
@@ -7023,7 +6781,7 @@
       <c r="I64" s="88"/>
       <c r="J64" s="89"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11">
       <c r="B65" s="87"/>
       <c r="C65" s="88"/>
       <c r="D65" s="88"/>
@@ -7034,7 +6792,7 @@
       <c r="I65" s="88"/>
       <c r="J65" s="89"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11">
       <c r="B66" s="87"/>
       <c r="C66" s="88"/>
       <c r="D66" s="88"/>
@@ -7045,7 +6803,7 @@
       <c r="I66" s="88"/>
       <c r="J66" s="89"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11">
       <c r="B67" s="87"/>
       <c r="C67" s="88"/>
       <c r="D67" s="88"/>
@@ -7056,7 +6814,7 @@
       <c r="I67" s="88"/>
       <c r="J67" s="89"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="87"/>
       <c r="C68" s="88"/>
       <c r="D68" s="88"/>
@@ -7067,7 +6825,7 @@
       <c r="I68" s="88"/>
       <c r="J68" s="89"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11">
       <c r="B69" s="87"/>
       <c r="C69" s="88"/>
       <c r="D69" s="88"/>
@@ -7078,7 +6836,7 @@
       <c r="I69" s="88"/>
       <c r="J69" s="89"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11">
       <c r="B70" s="87"/>
       <c r="C70" s="88"/>
       <c r="D70" s="88"/>
@@ -7089,13 +6847,13 @@
       <c r="I70" s="88"/>
       <c r="J70" s="89"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11">
       <c r="B71" s="87"/>
       <c r="C71" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="88" t="s">
         <v>103</v>
-      </c>
-      <c r="D71" s="88" t="s">
-        <v>113</v>
       </c>
       <c r="E71" s="88"/>
       <c r="F71" s="88"/>
@@ -7104,14 +6862,14 @@
       <c r="I71" s="88"/>
       <c r="J71" s="89"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11">
       <c r="B72" s="87"/>
       <c r="C72" s="9"/>
       <c r="D72" s="88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E72" s="88" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F72" s="88"/>
       <c r="G72" s="88"/>
@@ -7119,7 +6877,7 @@
       <c r="I72" s="88"/>
       <c r="J72" s="89"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73" s="87"/>
       <c r="C73" s="88"/>
       <c r="D73" s="88"/>
@@ -7130,11 +6888,11 @@
       <c r="I73" s="88"/>
       <c r="J73" s="89"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11">
       <c r="B74" s="87"/>
       <c r="C74" s="88"/>
       <c r="D74" s="114" t="str">
-        <f>'Research data'!C43</f>
+        <f>'Research data'!C38</f>
         <v>technical_lifetime</v>
       </c>
       <c r="E74" s="92">
@@ -7148,11 +6906,11 @@
       <c r="I74" s="88"/>
       <c r="J74" s="89"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11">
       <c r="B75" s="87"/>
       <c r="C75" s="88"/>
       <c r="D75" s="83" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E75" s="83">
         <v>9500</v>
@@ -7165,11 +6923,11 @@
       <c r="I75" s="88"/>
       <c r="J75" s="89"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11">
       <c r="B76" s="87"/>
       <c r="C76" s="88"/>
       <c r="D76" s="114" t="str">
-        <f>'Research data'!C31</f>
+        <f>'Research data'!C26</f>
         <v>cost_of_installing</v>
       </c>
       <c r="E76" s="88">
@@ -7183,11 +6941,11 @@
       <c r="I76" s="88"/>
       <c r="J76" s="89"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11">
       <c r="B77" s="87"/>
       <c r="C77" s="88"/>
       <c r="D77" s="114" t="str">
-        <f>'Research data'!C33</f>
+        <f>'Research data'!C28</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
       <c r="E77" s="88">
@@ -7201,7 +6959,7 @@
       <c r="I77" s="88"/>
       <c r="J77" s="89"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11">
       <c r="B78" s="87"/>
       <c r="C78" s="88"/>
       <c r="D78" s="114" t="str">
@@ -7220,11 +6978,11 @@
         <v>10</v>
       </c>
       <c r="I78" s="88" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J78" s="89"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11">
       <c r="B79" s="87"/>
       <c r="C79" s="88"/>
       <c r="D79" s="88"/>
@@ -7233,18 +6991,18 @@
       <c r="G79" s="88"/>
       <c r="H79" s="88"/>
       <c r="I79" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J79" s="89" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K79" s="88"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11">
       <c r="B80" s="87"/>
       <c r="C80" s="88"/>
       <c r="D80" s="88" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E80" s="88"/>
       <c r="F80" s="88"/>
@@ -7253,11 +7011,11 @@
       <c r="I80" s="88"/>
       <c r="J80" s="89"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10">
       <c r="B81" s="87"/>
       <c r="C81" s="88"/>
       <c r="D81" s="88" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E81" s="88"/>
       <c r="F81" s="88"/>
@@ -7266,41 +7024,41 @@
       <c r="I81" s="88"/>
       <c r="J81" s="89"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10">
       <c r="B82" s="87"/>
       <c r="C82" s="88"/>
       <c r="D82" s="90" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E82" s="88">
         <v>3.25</v>
       </c>
       <c r="F82" s="88" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G82" s="88"/>
       <c r="H82" s="88"/>
       <c r="I82" s="88"/>
       <c r="J82" s="89"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10">
       <c r="B83" s="87"/>
       <c r="C83" s="88"/>
       <c r="D83" s="90" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E83" s="88">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F83" s="88" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G83" s="88"/>
       <c r="H83" s="88"/>
       <c r="I83" s="88"/>
       <c r="J83" s="89"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10">
       <c r="B84" s="87"/>
       <c r="C84" s="88"/>
       <c r="D84" s="88"/>
@@ -7311,24 +7069,24 @@
       <c r="I84" s="88"/>
       <c r="J84" s="89"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10">
       <c r="B85" s="87"/>
       <c r="C85" s="88"/>
       <c r="D85" s="88" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E85" s="88">
         <v>7</v>
       </c>
       <c r="F85" s="88" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G85" s="88"/>
       <c r="H85" s="88"/>
       <c r="I85" s="88"/>
       <c r="J85" s="89"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10">
       <c r="B86" s="87"/>
       <c r="C86" s="88"/>
       <c r="D86" s="94" t="str">
@@ -7347,7 +7105,7 @@
       <c r="I86" s="88"/>
       <c r="J86" s="89"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10">
       <c r="B87" s="87"/>
       <c r="C87" s="88"/>
       <c r="D87" s="88"/>
@@ -7358,14 +7116,14 @@
       <c r="I87" s="88"/>
       <c r="J87" s="89"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10">
       <c r="B88" s="87"/>
       <c r="C88" s="88"/>
       <c r="D88" s="114" t="str">
-        <f>'Research data'!C29</f>
+        <f>'Research data'!C24</f>
         <v>initial_investment</v>
       </c>
-      <c r="E88" s="150">
+      <c r="E88" s="149">
         <f>E75-(E96*E22)</f>
         <v>9246.4312546957171</v>
       </c>
@@ -7377,7 +7135,7 @@
       <c r="I88" s="88"/>
       <c r="J88" s="89"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10">
       <c r="B89" s="87"/>
       <c r="C89" s="88"/>
       <c r="D89" s="88"/>
@@ -7391,7 +7149,7 @@
       <c r="I89" s="88"/>
       <c r="J89" s="89"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10">
       <c r="B90" s="87"/>
       <c r="C90" s="88"/>
       <c r="D90" s="88"/>
@@ -7402,7 +7160,7 @@
       <c r="I90" s="88"/>
       <c r="J90" s="89"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10">
       <c r="B91" s="87"/>
       <c r="C91" s="88"/>
       <c r="D91" s="88"/>
@@ -7413,7 +7171,7 @@
       <c r="I91" s="88"/>
       <c r="J91" s="89"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10">
       <c r="B92" s="87"/>
       <c r="C92" s="88"/>
       <c r="D92" s="88"/>
@@ -7424,7 +7182,7 @@
       <c r="I92" s="88"/>
       <c r="J92" s="89"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10">
       <c r="B93" s="87"/>
       <c r="C93" s="88"/>
       <c r="D93" s="88"/>
@@ -7435,7 +7193,7 @@
       <c r="I93" s="88"/>
       <c r="J93" s="89"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10">
       <c r="B94" s="87"/>
       <c r="C94" s="88"/>
       <c r="D94" s="88"/>
@@ -7446,7 +7204,7 @@
       <c r="I94" s="88"/>
       <c r="J94" s="89"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10">
       <c r="B95" s="87"/>
       <c r="C95" s="88"/>
       <c r="D95" s="88"/>
@@ -7457,49 +7215,49 @@
       <c r="I95" s="88"/>
       <c r="J95" s="89"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10">
       <c r="B96" s="87"/>
       <c r="C96" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D96" s="113" t="str">
-        <f>'Research data'!C38</f>
+        <f>'Research data'!C33</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E96" s="151">
+      <c r="E96" s="150">
         <f>E100*E101</f>
         <v>50713.749060856491</v>
       </c>
       <c r="F96" s="109" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G96" s="88"/>
       <c r="H96" s="88"/>
       <c r="I96" s="88"/>
       <c r="J96" s="89"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10">
       <c r="B97" s="87"/>
       <c r="C97" s="88"/>
       <c r="D97" s="88" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E97" s="88">
         <v>200</v>
       </c>
       <c r="F97" s="88" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G97" s="88"/>
       <c r="H97" s="88"/>
       <c r="I97" s="88"/>
       <c r="J97" s="89"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10">
       <c r="B98" s="87"/>
       <c r="C98" s="88"/>
       <c r="D98" s="88" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E98" s="88">
         <v>570</v>
@@ -7512,13 +7270,13 @@
       <c r="I98" s="88"/>
       <c r="J98" s="89"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10">
       <c r="B99" s="87"/>
       <c r="C99" s="88"/>
       <c r="D99" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E99" s="150">
+        <v>138</v>
+      </c>
+      <c r="E99" s="149">
         <f>E98/1.21</f>
         <v>471.07438016528926</v>
       </c>
@@ -7530,356 +7288,356 @@
       <c r="I99" s="88"/>
       <c r="J99" s="89"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10">
       <c r="B100" s="87"/>
       <c r="C100" s="88"/>
       <c r="D100" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" s="149">
+        <v>148</v>
+      </c>
+      <c r="E100" s="148">
         <f>E99/E97</f>
         <v>2.3553719008264462</v>
       </c>
       <c r="F100" s="88" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G100" s="88"/>
       <c r="H100" s="88"/>
       <c r="I100" s="88"/>
       <c r="J100" s="89"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10">
       <c r="B101" s="87"/>
       <c r="C101" s="88"/>
       <c r="D101" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="150">
+        <v>151</v>
+      </c>
+      <c r="E101" s="149">
         <f>E$35/E$37*1000</f>
         <v>21531.100478468896</v>
       </c>
       <c r="F101" s="88" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G101" s="88"/>
       <c r="H101" s="88"/>
       <c r="I101" s="88"/>
       <c r="J101" s="89"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10">
       <c r="B102" s="87"/>
       <c r="C102" s="88"/>
       <c r="D102" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="E102" s="150">
+        <v>149</v>
+      </c>
+      <c r="E102" s="149">
         <f>E96*E$22</f>
         <v>253.56874530428246</v>
       </c>
       <c r="F102" s="88" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G102" s="88"/>
       <c r="H102" s="88"/>
       <c r="I102" s="88"/>
       <c r="J102" s="89"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10">
       <c r="B103" s="87"/>
       <c r="C103" s="88"/>
       <c r="D103" s="88"/>
-      <c r="E103" s="150"/>
+      <c r="E103" s="149"/>
       <c r="F103" s="88"/>
       <c r="G103" s="88"/>
       <c r="H103" s="88"/>
       <c r="I103" s="88"/>
       <c r="J103" s="89"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10">
       <c r="B104" s="87"/>
       <c r="C104" s="88"/>
       <c r="D104" s="88"/>
-      <c r="E104" s="150"/>
+      <c r="E104" s="149"/>
       <c r="F104" s="88"/>
       <c r="G104" s="88"/>
       <c r="H104" s="88"/>
       <c r="I104" s="88"/>
       <c r="J104" s="89"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10">
       <c r="B105" s="87"/>
       <c r="C105" s="88"/>
       <c r="D105" s="88"/>
-      <c r="E105" s="150"/>
+      <c r="E105" s="149"/>
       <c r="F105" s="88"/>
       <c r="G105" s="88"/>
       <c r="H105" s="88"/>
       <c r="I105" s="88"/>
       <c r="J105" s="89"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10">
       <c r="B106" s="87"/>
       <c r="C106" s="88"/>
       <c r="D106" s="88"/>
-      <c r="E106" s="150"/>
+      <c r="E106" s="149"/>
       <c r="F106" s="88"/>
       <c r="G106" s="88"/>
       <c r="H106" s="88"/>
       <c r="I106" s="88"/>
       <c r="J106" s="89"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10">
       <c r="B107" s="87"/>
       <c r="C107" s="88"/>
       <c r="D107" s="88"/>
-      <c r="E107" s="150"/>
+      <c r="E107" s="149"/>
       <c r="F107" s="88"/>
       <c r="G107" s="88"/>
       <c r="H107" s="88"/>
       <c r="I107" s="88"/>
       <c r="J107" s="89"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10">
       <c r="B108" s="87"/>
       <c r="C108" s="88"/>
       <c r="D108" s="88"/>
-      <c r="E108" s="150"/>
+      <c r="E108" s="149"/>
       <c r="F108" s="88"/>
       <c r="G108" s="88"/>
       <c r="H108" s="88"/>
       <c r="I108" s="88"/>
       <c r="J108" s="89"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10">
       <c r="B109" s="87"/>
       <c r="C109" s="88"/>
       <c r="D109" s="88"/>
-      <c r="E109" s="150"/>
+      <c r="E109" s="149"/>
       <c r="F109" s="88"/>
       <c r="G109" s="88"/>
       <c r="H109" s="88"/>
       <c r="I109" s="88"/>
       <c r="J109" s="89"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10">
       <c r="B110" s="87"/>
       <c r="C110" s="88"/>
       <c r="D110" s="88"/>
-      <c r="E110" s="150"/>
+      <c r="E110" s="149"/>
       <c r="F110" s="88"/>
       <c r="G110" s="88"/>
       <c r="H110" s="88"/>
       <c r="I110" s="88"/>
       <c r="J110" s="89"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10">
       <c r="B111" s="87"/>
       <c r="C111" s="88"/>
       <c r="D111" s="88"/>
-      <c r="E111" s="150"/>
+      <c r="E111" s="149"/>
       <c r="F111" s="88"/>
       <c r="G111" s="88"/>
       <c r="H111" s="88"/>
       <c r="I111" s="88"/>
       <c r="J111" s="89"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10">
       <c r="B112" s="87"/>
       <c r="C112" s="88"/>
       <c r="D112" s="88"/>
-      <c r="E112" s="150"/>
+      <c r="E112" s="149"/>
       <c r="F112" s="88"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
       <c r="I112" s="88"/>
       <c r="J112" s="89"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10">
       <c r="B113" s="87"/>
       <c r="C113" s="88"/>
       <c r="D113" s="88"/>
-      <c r="E113" s="150"/>
+      <c r="E113" s="149"/>
       <c r="F113" s="88"/>
       <c r="G113" s="88"/>
       <c r="H113" s="88"/>
       <c r="I113" s="88"/>
       <c r="J113" s="89"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10">
       <c r="B114" s="87"/>
       <c r="C114" s="88"/>
       <c r="D114" s="88"/>
-      <c r="E114" s="150"/>
+      <c r="E114" s="149"/>
       <c r="F114" s="88"/>
       <c r="G114" s="88"/>
       <c r="H114" s="88"/>
       <c r="I114" s="88"/>
       <c r="J114" s="89"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10">
       <c r="B115" s="87"/>
       <c r="C115" s="88"/>
       <c r="D115" s="88"/>
-      <c r="E115" s="150"/>
+      <c r="E115" s="149"/>
       <c r="F115" s="88"/>
       <c r="G115" s="88"/>
       <c r="H115" s="88"/>
       <c r="I115" s="88"/>
       <c r="J115" s="89"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10">
       <c r="B116" s="87"/>
       <c r="C116" s="88"/>
       <c r="D116" s="88"/>
-      <c r="E116" s="150"/>
+      <c r="E116" s="149"/>
       <c r="F116" s="88"/>
       <c r="G116" s="88"/>
       <c r="H116" s="88"/>
       <c r="I116" s="88"/>
       <c r="J116" s="89"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10">
       <c r="B117" s="87"/>
       <c r="C117" s="88"/>
       <c r="D117" s="88"/>
-      <c r="E117" s="150"/>
+      <c r="E117" s="149"/>
       <c r="F117" s="88"/>
       <c r="G117" s="88"/>
       <c r="H117" s="88"/>
       <c r="I117" s="88"/>
       <c r="J117" s="89"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10">
       <c r="B118" s="87"/>
       <c r="C118" s="88"/>
       <c r="D118" s="88"/>
-      <c r="E118" s="150"/>
+      <c r="E118" s="149"/>
       <c r="F118" s="88"/>
       <c r="G118" s="88"/>
       <c r="H118" s="88"/>
       <c r="I118" s="88"/>
       <c r="J118" s="89"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10">
       <c r="B119" s="87"/>
       <c r="C119" s="88"/>
       <c r="D119" s="88"/>
-      <c r="E119" s="150"/>
+      <c r="E119" s="149"/>
       <c r="F119" s="88"/>
       <c r="G119" s="88"/>
       <c r="H119" s="88"/>
       <c r="I119" s="88"/>
       <c r="J119" s="89"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10">
       <c r="B120" s="87"/>
       <c r="C120" s="88"/>
       <c r="D120" s="88"/>
-      <c r="E120" s="150"/>
+      <c r="E120" s="149"/>
       <c r="F120" s="88"/>
       <c r="G120" s="88"/>
       <c r="H120" s="88"/>
       <c r="I120" s="88"/>
       <c r="J120" s="89"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10">
       <c r="B121" s="87"/>
       <c r="C121" s="88"/>
       <c r="D121" s="88"/>
-      <c r="E121" s="150"/>
+      <c r="E121" s="149"/>
       <c r="F121" s="88"/>
       <c r="G121" s="88"/>
       <c r="H121" s="88"/>
       <c r="I121" s="88"/>
       <c r="J121" s="89"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10">
       <c r="B122" s="87"/>
       <c r="C122" s="88"/>
       <c r="D122" s="88"/>
-      <c r="E122" s="150"/>
+      <c r="E122" s="149"/>
       <c r="F122" s="88"/>
       <c r="G122" s="88"/>
       <c r="H122" s="88"/>
       <c r="I122" s="88"/>
       <c r="J122" s="89"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10">
       <c r="B123" s="87"/>
       <c r="C123" s="88"/>
       <c r="D123" s="88"/>
-      <c r="E123" s="150"/>
+      <c r="E123" s="149"/>
       <c r="F123" s="88"/>
       <c r="G123" s="88"/>
       <c r="H123" s="88"/>
       <c r="I123" s="88"/>
       <c r="J123" s="89"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10">
       <c r="B124" s="87"/>
       <c r="C124" s="88"/>
       <c r="D124" s="88"/>
-      <c r="E124" s="150"/>
+      <c r="E124" s="149"/>
       <c r="F124" s="88"/>
       <c r="G124" s="88"/>
       <c r="H124" s="88"/>
       <c r="I124" s="88"/>
       <c r="J124" s="89"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10">
       <c r="B125" s="87"/>
       <c r="C125" s="88"/>
       <c r="D125" s="88"/>
-      <c r="E125" s="150"/>
+      <c r="E125" s="149"/>
       <c r="F125" s="88"/>
       <c r="G125" s="88"/>
       <c r="H125" s="88"/>
       <c r="I125" s="88"/>
       <c r="J125" s="89"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10">
       <c r="B126" s="87"/>
       <c r="C126" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D126" s="113" t="str">
-        <f>'Research data'!C38</f>
+        <f>'Research data'!C33</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E126" s="151">
+      <c r="E126" s="150">
         <f>E130*E131</f>
         <v>60055.755466803734</v>
       </c>
       <c r="F126" s="109" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G126" s="88"/>
       <c r="H126" s="88"/>
       <c r="I126" s="88"/>
       <c r="J126" s="89"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10">
       <c r="B127" s="87"/>
       <c r="C127" s="88"/>
       <c r="D127" s="88" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E127" s="88">
         <v>120</v>
       </c>
       <c r="F127" s="88" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G127" s="88"/>
       <c r="H127" s="88"/>
       <c r="I127" s="88"/>
       <c r="J127" s="89"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10">
       <c r="B128" s="87"/>
       <c r="C128" s="88"/>
       <c r="D128" s="88" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E128" s="88">
         <v>405</v>
@@ -7892,13 +7650,13 @@
       <c r="I128" s="88"/>
       <c r="J128" s="89"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10">
       <c r="B129" s="87"/>
       <c r="C129" s="88"/>
       <c r="D129" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E129" s="150">
+        <v>138</v>
+      </c>
+      <c r="E129" s="149">
         <f>E128/1.21</f>
         <v>334.71074380165288</v>
       </c>
@@ -7910,325 +7668,325 @@
       <c r="I129" s="88"/>
       <c r="J129" s="89"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10">
       <c r="B130" s="87"/>
       <c r="C130" s="88"/>
       <c r="D130" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E130" s="149">
+        <v>148</v>
+      </c>
+      <c r="E130" s="148">
         <f>E129/E127</f>
         <v>2.7892561983471071</v>
       </c>
       <c r="F130" s="88" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G130" s="88"/>
       <c r="H130" s="88"/>
       <c r="I130" s="88"/>
       <c r="J130" s="89"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10">
       <c r="B131" s="87"/>
       <c r="C131" s="88"/>
       <c r="D131" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" s="150">
+        <v>151</v>
+      </c>
+      <c r="E131" s="149">
         <f>E$35/E$37*1000</f>
         <v>21531.100478468896</v>
       </c>
       <c r="F131" s="88" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G131" s="88"/>
       <c r="H131" s="88"/>
       <c r="I131" s="88"/>
       <c r="J131" s="89"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10">
       <c r="B132" s="87"/>
       <c r="C132" s="88"/>
       <c r="D132" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="E132" s="150">
+        <v>149</v>
+      </c>
+      <c r="E132" s="149">
         <f>E126*E$22</f>
         <v>300.27877733401868</v>
       </c>
       <c r="F132" s="88" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G132" s="88"/>
       <c r="H132" s="88"/>
       <c r="I132" s="88"/>
       <c r="J132" s="89"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10">
       <c r="B133" s="87"/>
       <c r="C133" s="88"/>
       <c r="D133" s="88"/>
-      <c r="E133" s="150"/>
+      <c r="E133" s="149"/>
       <c r="F133" s="88"/>
       <c r="G133" s="88"/>
       <c r="H133" s="88"/>
       <c r="I133" s="88"/>
       <c r="J133" s="89"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10">
       <c r="B134" s="87"/>
       <c r="C134" s="88"/>
       <c r="D134" s="88"/>
-      <c r="E134" s="150"/>
+      <c r="E134" s="149"/>
       <c r="F134" s="88"/>
       <c r="G134" s="88"/>
       <c r="H134" s="88"/>
       <c r="I134" s="88"/>
       <c r="J134" s="89"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10">
       <c r="B135" s="87"/>
       <c r="C135" s="88"/>
       <c r="D135" s="88"/>
-      <c r="E135" s="150"/>
+      <c r="E135" s="149"/>
       <c r="F135" s="88"/>
       <c r="G135" s="88"/>
       <c r="H135" s="88"/>
       <c r="I135" s="88"/>
       <c r="J135" s="89"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10">
       <c r="B136" s="87"/>
       <c r="C136" s="88"/>
       <c r="D136" s="88"/>
-      <c r="E136" s="150"/>
+      <c r="E136" s="149"/>
       <c r="F136" s="88"/>
       <c r="G136" s="88"/>
       <c r="H136" s="88"/>
       <c r="I136" s="88"/>
       <c r="J136" s="89"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10">
       <c r="B137" s="87"/>
       <c r="C137" s="88"/>
       <c r="D137" s="88"/>
-      <c r="E137" s="150"/>
+      <c r="E137" s="149"/>
       <c r="F137" s="88"/>
       <c r="G137" s="88"/>
       <c r="H137" s="88"/>
       <c r="I137" s="88"/>
       <c r="J137" s="89"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10">
       <c r="B138" s="87"/>
       <c r="C138" s="88"/>
       <c r="D138" s="88"/>
-      <c r="E138" s="150"/>
+      <c r="E138" s="149"/>
       <c r="F138" s="88"/>
       <c r="G138" s="88"/>
       <c r="H138" s="88"/>
       <c r="I138" s="88"/>
       <c r="J138" s="89"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10">
       <c r="B139" s="87"/>
       <c r="C139" s="88"/>
       <c r="D139" s="88"/>
-      <c r="E139" s="150"/>
+      <c r="E139" s="149"/>
       <c r="F139" s="88"/>
       <c r="G139" s="88"/>
       <c r="H139" s="88"/>
       <c r="I139" s="88"/>
       <c r="J139" s="89"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10">
       <c r="B140" s="87"/>
       <c r="C140" s="88"/>
       <c r="D140" s="88"/>
-      <c r="E140" s="150"/>
+      <c r="E140" s="149"/>
       <c r="F140" s="88"/>
       <c r="G140" s="88"/>
       <c r="H140" s="88"/>
       <c r="I140" s="88"/>
       <c r="J140" s="89"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10">
       <c r="B141" s="87"/>
       <c r="C141" s="88"/>
       <c r="D141" s="88"/>
-      <c r="E141" s="150"/>
+      <c r="E141" s="149"/>
       <c r="F141" s="88"/>
       <c r="G141" s="88"/>
       <c r="H141" s="88"/>
       <c r="I141" s="88"/>
       <c r="J141" s="89"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10">
       <c r="B142" s="87"/>
       <c r="C142" s="88"/>
       <c r="D142" s="88"/>
-      <c r="E142" s="150"/>
+      <c r="E142" s="149"/>
       <c r="F142" s="88"/>
       <c r="G142" s="88"/>
       <c r="H142" s="88"/>
       <c r="I142" s="88"/>
       <c r="J142" s="89"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10">
       <c r="B143" s="87"/>
       <c r="C143" s="88"/>
       <c r="D143" s="88"/>
-      <c r="E143" s="150"/>
+      <c r="E143" s="149"/>
       <c r="F143" s="88"/>
       <c r="G143" s="88"/>
       <c r="H143" s="88"/>
       <c r="I143" s="88"/>
       <c r="J143" s="89"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10">
       <c r="B144" s="87"/>
       <c r="C144" s="88"/>
       <c r="D144" s="88"/>
-      <c r="E144" s="150"/>
+      <c r="E144" s="149"/>
       <c r="F144" s="88"/>
       <c r="G144" s="88"/>
       <c r="H144" s="88"/>
       <c r="I144" s="88"/>
       <c r="J144" s="89"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="B145" s="87"/>
       <c r="C145" s="88"/>
       <c r="D145" s="88"/>
-      <c r="E145" s="150"/>
+      <c r="E145" s="149"/>
       <c r="F145" s="88"/>
       <c r="G145" s="88"/>
       <c r="H145" s="88"/>
       <c r="I145" s="88"/>
       <c r="J145" s="89"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="B146" s="87"/>
       <c r="C146" s="88"/>
       <c r="D146" s="88"/>
-      <c r="E146" s="150"/>
+      <c r="E146" s="149"/>
       <c r="F146" s="88"/>
       <c r="G146" s="88"/>
       <c r="H146" s="88"/>
       <c r="I146" s="88"/>
       <c r="J146" s="89"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="B147" s="87"/>
       <c r="C147" s="88"/>
       <c r="D147" s="88"/>
-      <c r="E147" s="150"/>
+      <c r="E147" s="149"/>
       <c r="F147" s="88"/>
       <c r="G147" s="88"/>
       <c r="H147" s="88"/>
       <c r="I147" s="88"/>
       <c r="J147" s="89"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="B148" s="87"/>
       <c r="C148" s="88"/>
       <c r="D148" s="88"/>
-      <c r="E148" s="150"/>
+      <c r="E148" s="149"/>
       <c r="F148" s="88"/>
       <c r="G148" s="88"/>
       <c r="H148" s="88"/>
       <c r="I148" s="88"/>
       <c r="J148" s="89"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="B149" s="87"/>
       <c r="C149" s="88"/>
       <c r="D149" s="88"/>
-      <c r="E149" s="150"/>
+      <c r="E149" s="149"/>
       <c r="F149" s="88"/>
       <c r="G149" s="88"/>
       <c r="H149" s="88"/>
       <c r="I149" s="88"/>
       <c r="J149" s="89"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="B150" s="87"/>
       <c r="C150" s="88"/>
       <c r="D150" s="88"/>
-      <c r="E150" s="150"/>
+      <c r="E150" s="149"/>
       <c r="F150" s="88"/>
       <c r="G150" s="88"/>
       <c r="H150" s="88"/>
       <c r="I150" s="88"/>
       <c r="J150" s="89"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="B151" s="87"/>
       <c r="C151" s="88"/>
       <c r="D151" s="88"/>
-      <c r="E151" s="150"/>
+      <c r="E151" s="149"/>
       <c r="F151" s="88"/>
       <c r="G151" s="88"/>
       <c r="H151" s="88"/>
       <c r="I151" s="88"/>
       <c r="J151" s="89"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="B152" s="87"/>
       <c r="C152" s="88"/>
       <c r="D152" s="88"/>
-      <c r="E152" s="150"/>
+      <c r="E152" s="149"/>
       <c r="F152" s="88"/>
       <c r="G152" s="88"/>
       <c r="H152" s="88"/>
       <c r="I152" s="88"/>
       <c r="J152" s="89"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="B153" s="87"/>
       <c r="C153" s="88"/>
       <c r="D153" s="88"/>
-      <c r="E153" s="150"/>
+      <c r="E153" s="149"/>
       <c r="F153" s="88"/>
       <c r="G153" s="88"/>
       <c r="H153" s="88"/>
       <c r="I153" s="88"/>
       <c r="J153" s="89"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="B154" s="87"/>
       <c r="C154" s="88"/>
       <c r="D154" s="88"/>
-      <c r="E154" s="150"/>
+      <c r="E154" s="149"/>
       <c r="F154" s="88"/>
       <c r="G154" s="88"/>
       <c r="H154" s="88"/>
       <c r="I154" s="88"/>
       <c r="J154" s="89"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="B155" s="87"/>
       <c r="C155" s="88"/>
       <c r="D155" s="88"/>
-      <c r="E155" s="150"/>
+      <c r="E155" s="149"/>
       <c r="F155" s="88"/>
       <c r="G155" s="88"/>
       <c r="H155" s="88"/>
       <c r="I155" s="88"/>
       <c r="J155" s="89"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="B156" s="87"/>
       <c r="C156" s="88"/>
       <c r="D156" s="88"/>
-      <c r="E156" s="150"/>
+      <c r="E156" s="149"/>
       <c r="F156" s="88"/>
       <c r="G156" s="88"/>
       <c r="H156" s="88"/>
       <c r="I156" s="88"/>
       <c r="J156" s="89"/>
     </row>
-    <row r="157" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="14" customHeight="1">
       <c r="A157" s="88"/>
       <c r="B157" s="87"/>
       <c r="C157" s="88"/>
@@ -8240,7 +7998,7 @@
       <c r="I157" s="88"/>
       <c r="J157" s="89"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" s="88"/>
       <c r="B158" s="87"/>
       <c r="C158" s="88"/>
@@ -8252,7 +8010,7 @@
       <c r="I158" s="88"/>
       <c r="J158" s="89"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" s="88"/>
       <c r="B159" s="87"/>
       <c r="C159" s="88"/>
@@ -8264,7 +8022,7 @@
       <c r="I159" s="88"/>
       <c r="J159" s="89"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" s="88"/>
       <c r="B160" s="87"/>
       <c r="C160" s="88"/>
@@ -8276,7 +8034,7 @@
       <c r="I160" s="88"/>
       <c r="J160" s="89"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" s="88"/>
       <c r="B161" s="87"/>
       <c r="C161" s="88"/>
@@ -8288,7 +8046,7 @@
       <c r="I161" s="88"/>
       <c r="J161" s="89"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" s="88"/>
       <c r="B162" s="87"/>
       <c r="C162" s="88"/>
@@ -8300,7 +8058,7 @@
       <c r="I162" s="88"/>
       <c r="J162" s="89"/>
     </row>
-    <row r="163" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="17" thickBot="1">
       <c r="B163" s="115"/>
       <c r="C163" s="116"/>
       <c r="D163" s="116"/>
@@ -8311,12 +8069,12 @@
       <c r="I163" s="116"/>
       <c r="J163" s="117"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>

--- a/nodes_source_analyses/households/households_water_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C0B96-7D7A-134A-BBBE-1AE054A305D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A3F6F0-3127-2941-A8F0-DB01FD24333F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="24880" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="154">
   <si>
     <t>Source</t>
   </si>
@@ -510,6 +516,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -523,7 +532,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,6 +621,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,6 +629,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,6 +637,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,6 +645,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,17 +653,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,6 +680,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,6 +695,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1214,7 +1237,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1425,6 +1448,7 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2566,8 +2590,8 @@
   </sheetPr>
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2592,28 +2616,28 @@
       <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:10" ht="34" customHeight="1">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
@@ -3054,8 +3078,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="155">
-        <f>'Research data'!E24</f>
-        <v>9246.4312546957171</v>
+        <v>0</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25" t="s">
@@ -3100,8 +3123,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="130">
-        <f>'Research data'!E26</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25" t="s">
@@ -3146,8 +3168,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="130">
-        <f>'Research data'!E28</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25" t="s">
@@ -3215,17 +3236,15 @@
         <v>2</v>
       </c>
       <c r="E35" s="130">
-        <f>'Research data'!E31</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="25"/>
-      <c r="I35" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E31,'Research data'!F31:M31,'Research data'!F$3:L$3)</f>
-        <v>Quintel WD</v>
+      <c r="I35" s="156" t="s">
+        <v>153</v>
       </c>
       <c r="J35" s="78"/>
     </row>
@@ -3238,14 +3257,14 @@
         <v>9</v>
       </c>
       <c r="E36" s="130">
-        <f>'Research data'!E32</f>
+        <f>'Research data'!E31</f>
         <v>0</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="131" t="str">
-        <f ca="1">LOOKUP('Research data'!E32,'Research data'!F32:M32,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E31,'Research data'!F31:M31,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J36" s="78"/>
@@ -3259,7 +3278,7 @@
         <v>132</v>
       </c>
       <c r="E37" s="130">
-        <f>'Research data'!E33</f>
+        <f>'Research data'!E32</f>
         <v>50713.749060856491</v>
       </c>
       <c r="F37" s="25"/>
@@ -3304,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="35">
-        <f>'Research data'!E36</f>
+        <f>'Research data'!E35</f>
         <v>0</v>
       </c>
       <c r="F40" s="25"/>
@@ -3313,7 +3332,7 @@
       </c>
       <c r="H40" s="25"/>
       <c r="I40" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E36,'Research data'!F36:M36,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E35,'Research data'!F35:M35,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J40" s="78"/>
@@ -3327,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="35">
-        <f>'Research data'!E37</f>
+        <f>'Research data'!E36</f>
         <v>0</v>
       </c>
       <c r="F41" s="25"/>
@@ -3336,7 +3355,7 @@
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E37,'Research data'!F37:M37,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E36,'Research data'!F36:M36,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J41" s="78"/>
@@ -3350,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="35">
-        <f>'Research data'!E38</f>
+        <f>'Research data'!E37</f>
         <v>15</v>
       </c>
       <c r="F42" s="25"/>
@@ -3359,7 +3378,7 @@
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E38,'Research data'!F38:M38,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E37,'Research data'!F37:M37,'Research data'!F$3:L$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J42" s="78"/>
@@ -3373,14 +3392,14 @@
         <v>4</v>
       </c>
       <c r="E43" s="35">
-        <f>'Research data'!E39</f>
+        <f>'Research data'!E38</f>
         <v>0</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E39,'Research data'!F39:M39,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E38,'Research data'!F38:M38,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J43" s="78"/>
@@ -3394,14 +3413,14 @@
         <v>4</v>
       </c>
       <c r="E44" s="35">
-        <f>'Research data'!E40</f>
+        <f>'Research data'!E39</f>
         <v>0</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E40,'Research data'!F40:M40,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E39,'Research data'!F39:M39,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J44" s="78"/>
@@ -3415,14 +3434,14 @@
         <v>4</v>
       </c>
       <c r="E45" s="35">
-        <f>'Research data'!E41</f>
+        <f>'Research data'!E40</f>
         <v>0</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E41,'Research data'!F41:M41,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E40,'Research data'!F40:M40,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J45" s="78"/>
@@ -3436,14 +3455,14 @@
         <v>4</v>
       </c>
       <c r="E46" s="35">
-        <f>'Research data'!E42</f>
+        <f>'Research data'!E41</f>
         <v>7</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E42,'Research data'!F42:M42,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E41,'Research data'!F41:M41,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J46" s="78"/>
@@ -3457,14 +3476,14 @@
         <v>4</v>
       </c>
       <c r="E47" s="35">
-        <f>'Research data'!E43</f>
+        <f>'Research data'!E42</f>
         <v>1.5</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E43,'Research data'!F43:M43,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E42,'Research data'!F42:M42,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J47" s="78"/>
@@ -3478,14 +3497,14 @@
         <v>4</v>
       </c>
       <c r="E48" s="35">
-        <f>'Research data'!E44</f>
+        <f>'Research data'!E43</f>
         <v>7</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="82" t="str">
-        <f ca="1">LOOKUP('Research data'!E44,'Research data'!F44:M44,'Research data'!F$3:L$3)</f>
+        <f ca="1">LOOKUP('Research data'!E43,'Research data'!F43:M43,'Research data'!F$3:L$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J48" s="78"/>
@@ -3515,10 +3534,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:N77"/>
+  <dimension ref="B1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD26"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -4270,16 +4289,16 @@
     <row r="31" spans="2:14" ht="17" thickBot="1">
       <c r="B31" s="53"/>
       <c r="C31" s="49" t="str">
-        <f>Dashboard!C35</f>
-        <v>wacc</v>
+        <f>Dashboard!C36</f>
+        <v>takes_part_in_ets</v>
       </c>
       <c r="D31" s="49" t="str">
-        <f>Dashboard!D35</f>
-        <v>%</v>
+        <f>Dashboard!D36</f>
+        <v>yes=1, no=0</v>
       </c>
       <c r="E31" s="118">
         <f>M31</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
@@ -4289,69 +4308,61 @@
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
       <c r="M31" s="118">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N31" s="89"/>
     </row>
     <row r="32" spans="2:14" ht="17" thickBot="1">
       <c r="B32" s="53"/>
       <c r="C32" s="49" t="str">
-        <f>Dashboard!C36</f>
-        <v>takes_part_in_ets</v>
+        <f>Dashboard!C37</f>
+        <v>storage.cost_per_mwh</v>
       </c>
       <c r="D32" s="49" t="str">
-        <f>Dashboard!D36</f>
-        <v>yes=1, no=0</v>
-      </c>
-      <c r="E32" s="118">
-        <f>M32</f>
-        <v>0</v>
+        <f>Dashboard!D37</f>
+        <v>euro/MWh</v>
+      </c>
+      <c r="E32" s="154">
+        <f>L32</f>
+        <v>50713.749060856491</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="118">
-        <v>0</v>
-      </c>
-      <c r="N32" s="89"/>
-    </row>
-    <row r="33" spans="2:14" ht="17" thickBot="1">
-      <c r="B33" s="53"/>
-      <c r="C33" s="49" t="str">
-        <f>Dashboard!C37</f>
-        <v>storage.cost_per_mwh</v>
-      </c>
-      <c r="D33" s="49" t="str">
-        <f>Dashboard!D37</f>
-        <v>euro/MWh</v>
-      </c>
-      <c r="E33" s="154">
-        <f>L33</f>
-        <v>50713.749060856491</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="154">
+      <c r="K32" s="154">
         <f>Notes!E126</f>
         <v>60055.755466803734</v>
       </c>
-      <c r="L33" s="154">
+      <c r="L32" s="154">
         <f>Notes!E96</f>
         <v>50713.749060856491</v>
       </c>
-      <c r="M33" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="98"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="53"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
       <c r="N33" s="98"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" ht="17" thickBot="1">
       <c r="B34" s="53"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="9" t="str">
+        <f>Dashboard!C39</f>
+        <v>Other</v>
+      </c>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
@@ -4366,31 +4377,39 @@
     </row>
     <row r="35" spans="2:14" ht="17" thickBot="1">
       <c r="B35" s="53"/>
-      <c r="C35" s="9" t="str">
-        <f>Dashboard!C39</f>
-        <v>Other</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="98"/>
+      <c r="C35" s="49" t="str">
+        <f>Dashboard!C40</f>
+        <v>land_use_per_unit</v>
+      </c>
+      <c r="D35" s="49" t="str">
+        <f>Dashboard!D40</f>
+        <v>km2</v>
+      </c>
+      <c r="E35" s="118">
+        <f>M35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="118">
+        <v>0</v>
+      </c>
+      <c r="N35" s="89"/>
     </row>
     <row r="36" spans="2:14" ht="17" thickBot="1">
       <c r="B36" s="53"/>
       <c r="C36" s="49" t="str">
-        <f>Dashboard!C40</f>
-        <v>land_use_per_unit</v>
+        <f>Dashboard!C41</f>
+        <v>construction_time</v>
       </c>
       <c r="D36" s="49" t="str">
-        <f>Dashboard!D40</f>
-        <v>km2</v>
+        <f>Dashboard!D41</f>
+        <v>years</v>
       </c>
       <c r="E36" s="118">
         <f>M36</f>
@@ -4411,68 +4430,68 @@
     <row r="37" spans="2:14" ht="17" thickBot="1">
       <c r="B37" s="53"/>
       <c r="C37" s="49" t="str">
-        <f>Dashboard!C41</f>
-        <v>construction_time</v>
+        <f>Dashboard!C42</f>
+        <v>technical_lifetime</v>
       </c>
       <c r="D37" s="49" t="str">
-        <f>Dashboard!D41</f>
+        <f>Dashboard!D42</f>
         <v>years</v>
       </c>
-      <c r="E37" s="118">
-        <f>M37</f>
-        <v>0</v>
+      <c r="E37" s="129">
+        <f>J37</f>
+        <v>15</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="125">
+        <f>Notes!E74</f>
+        <v>15</v>
+      </c>
+      <c r="K37" s="153"/>
       <c r="L37" s="49"/>
-      <c r="M37" s="118">
-        <v>0</v>
-      </c>
-      <c r="N37" s="89"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="102"/>
     </row>
     <row r="38" spans="2:14" ht="17" thickBot="1">
       <c r="B38" s="53"/>
       <c r="C38" s="49" t="str">
-        <f>Dashboard!C42</f>
-        <v>technical_lifetime</v>
+        <f>Dashboard!C43</f>
+        <v>free_co2_factor</v>
       </c>
       <c r="D38" s="49" t="str">
-        <f>Dashboard!D42</f>
-        <v>years</v>
-      </c>
-      <c r="E38" s="129">
-        <f>J38</f>
-        <v>15</v>
+        <f>Dashboard!D43</f>
+        <v>-</v>
+      </c>
+      <c r="E38" s="118">
+        <f t="shared" ref="E38:E43" si="1">M38</f>
+        <v>0</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="49"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="125">
-        <f>Notes!E74</f>
-        <v>15</v>
-      </c>
-      <c r="K38" s="153"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
       <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="102"/>
+      <c r="M38" s="118">
+        <v>0</v>
+      </c>
+      <c r="N38" s="89"/>
     </row>
     <row r="39" spans="2:14" ht="17" thickBot="1">
       <c r="B39" s="53"/>
       <c r="C39" s="49" t="str">
-        <f>Dashboard!C43</f>
-        <v>free_co2_factor</v>
+        <f>Dashboard!C44</f>
+        <v>hours_prep_nl</v>
       </c>
       <c r="D39" s="49" t="str">
-        <f>Dashboard!D43</f>
+        <f>Dashboard!D44</f>
         <v>-</v>
       </c>
       <c r="E39" s="118">
-        <f t="shared" ref="E39:E44" si="1">M39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39" s="49"/>
@@ -4490,11 +4509,11 @@
     <row r="40" spans="2:14" ht="17" thickBot="1">
       <c r="B40" s="53"/>
       <c r="C40" s="49" t="str">
-        <f>Dashboard!C44</f>
-        <v>hours_prep_nl</v>
+        <f>Dashboard!C45</f>
+        <v>hours_prod_nl</v>
       </c>
       <c r="D40" s="49" t="str">
-        <f>Dashboard!D44</f>
+        <f>Dashboard!D45</f>
         <v>-</v>
       </c>
       <c r="E40" s="118">
@@ -4516,16 +4535,16 @@
     <row r="41" spans="2:14" ht="17" thickBot="1">
       <c r="B41" s="53"/>
       <c r="C41" s="49" t="str">
-        <f>Dashboard!C45</f>
-        <v>hours_prod_nl</v>
+        <f>Dashboard!C46</f>
+        <v>hours_place_nl</v>
       </c>
       <c r="D41" s="49" t="str">
-        <f>Dashboard!D45</f>
+        <f>Dashboard!D46</f>
         <v>-</v>
       </c>
       <c r="E41" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
@@ -4535,23 +4554,23 @@
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
       <c r="M41" s="118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N41" s="89"/>
     </row>
     <row r="42" spans="2:14" ht="17" thickBot="1">
       <c r="B42" s="53"/>
       <c r="C42" s="49" t="str">
-        <f>Dashboard!C46</f>
-        <v>hours_place_nl</v>
+        <f>Dashboard!C47</f>
+        <v>hours_maint_nl</v>
       </c>
       <c r="D42" s="49" t="str">
-        <f>Dashboard!D46</f>
+        <f>Dashboard!D47</f>
         <v>-</v>
       </c>
       <c r="E42" s="118">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
@@ -4561,23 +4580,23 @@
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="118">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N42" s="89"/>
     </row>
     <row r="43" spans="2:14" ht="17" thickBot="1">
       <c r="B43" s="53"/>
       <c r="C43" s="49" t="str">
-        <f>Dashboard!C47</f>
-        <v>hours_maint_nl</v>
+        <f>Dashboard!C48</f>
+        <v>hours_remov_nl</v>
       </c>
       <c r="D43" s="49" t="str">
-        <f>Dashboard!D47</f>
+        <f>Dashboard!D48</f>
         <v>-</v>
       </c>
       <c r="E43" s="118">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
@@ -4587,35 +4606,24 @@
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
       <c r="M43" s="118">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N43" s="89"/>
     </row>
-    <row r="44" spans="2:14" ht="17" thickBot="1">
+    <row r="44" spans="2:14">
       <c r="B44" s="53"/>
-      <c r="C44" s="49" t="str">
-        <f>Dashboard!C48</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D44" s="49" t="str">
-        <f>Dashboard!D48</f>
-        <v>-</v>
-      </c>
-      <c r="E44" s="118">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="118">
-        <v>7</v>
-      </c>
-      <c r="N44" s="89"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="98"/>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="53"/>
@@ -5082,35 +5090,20 @@
       <c r="M75" s="57"/>
       <c r="N75" s="98"/>
     </row>
-    <row r="76" spans="2:14">
-      <c r="B76" s="53"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="98"/>
-    </row>
-    <row r="77" spans="2:14" ht="17" thickBot="1">
-      <c r="B77" s="103"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="104"/>
-      <c r="N77" s="105"/>
+    <row r="76" spans="2:14" ht="17" thickBot="1">
+      <c r="B76" s="103"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="104"/>
+      <c r="M76" s="104"/>
+      <c r="N76" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5415,7 +5408,7 @@
     <row r="18" spans="2:11">
       <c r="B18" s="41"/>
       <c r="C18" s="137" t="str">
-        <f>'Research data'!C33</f>
+        <f>'Research data'!C32</f>
         <v>storage.cost_per_mwh</v>
       </c>
       <c r="D18" s="132"/>
@@ -5454,7 +5447,7 @@
     <row r="20" spans="2:11">
       <c r="B20" s="41"/>
       <c r="C20" s="137" t="str">
-        <f>'Research data'!C33</f>
+        <f>'Research data'!C32</f>
         <v>storage.cost_per_mwh</v>
       </c>
       <c r="D20" s="132"/>
@@ -6892,7 +6885,7 @@
       <c r="B74" s="87"/>
       <c r="C74" s="88"/>
       <c r="D74" s="114" t="str">
-        <f>'Research data'!C38</f>
+        <f>'Research data'!C37</f>
         <v>technical_lifetime</v>
       </c>
       <c r="E74" s="92">
@@ -7221,7 +7214,7 @@
         <v>135</v>
       </c>
       <c r="D96" s="113" t="str">
-        <f>'Research data'!C33</f>
+        <f>'Research data'!C32</f>
         <v>storage.cost_per_mwh</v>
       </c>
       <c r="E96" s="150">
@@ -7601,7 +7594,7 @@
         <v>139</v>
       </c>
       <c r="D126" s="113" t="str">
-        <f>'Research data'!C33</f>
+        <f>'Research data'!C32</f>
         <v>storage.cost_per_mwh</v>
       </c>
       <c r="E126" s="150">
